--- a/templates/template_input.xlsx
+++ b/templates/template_input.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/github_projects/Nutrition/applications/template/data/national/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{734BFC30-8600-474E-921A-1A738EE53FB8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6180" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6180" yWindow="-21135" windowWidth="20730" windowHeight="11760" tabRatio="961" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -74,7 +68,7 @@
     <definedName name="term_SGA">'Baseline year population inputs'!$C$39</definedName>
     <definedName name="U5_mortality">'Baseline year population inputs'!$C$31</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="145621" calcMode="manual"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -84,12 +78,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -113,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000002000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -142,12 +136,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -185,7 +179,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="217">
   <si>
     <t>year</t>
   </si>
@@ -565,12 +559,6 @@
     <t>Total WRA</t>
   </si>
   <si>
-    <t>Percentage of deaths in baseline year attributable to cause</t>
-  </si>
-  <si>
-    <t>Percentage of children in each category in baseline year</t>
-  </si>
-  <si>
     <t>Wasting (weight-for-height)</t>
   </si>
   <si>
@@ -601,9 +589,6 @@
     <t>SAM   (WHZ-score &lt; -3)</t>
   </si>
   <si>
-    <t>Percentage of births in category</t>
-  </si>
-  <si>
     <t>Birth age and order</t>
   </si>
   <si>
@@ -637,9 +622,6 @@
     <t>Percentage of anaemia that is iron deficient</t>
   </si>
   <si>
-    <t>Percentage of population in each category in baseline year</t>
-  </si>
-  <si>
     <t>Birth outcome distribution</t>
   </si>
   <si>
@@ -794,9 +776,6 @@
   </si>
   <si>
     <t>saturation coverage of target population</t>
-  </si>
-  <si>
-    <t>baseline coverage</t>
   </si>
   <si>
     <t>Unit costs by delivery modality and target population</t>
@@ -856,7 +835,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1839,7 +1818,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2041,6 +2020,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="727">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
@@ -2767,8 +2749,8 @@
     <cellStyle name="Hyperlink" xfId="721" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="723" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="725" xr:uid="{00000000-0005-0000-0000-0000D4020000}"/>
-    <cellStyle name="Normal 3" xfId="726" xr:uid="{00000000-0005-0000-0000-0000D5020000}"/>
+    <cellStyle name="Normal 2" xfId="725"/>
+    <cellStyle name="Normal 3" xfId="726"/>
     <cellStyle name="Percent" xfId="10" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
@@ -2827,7 +2809,7 @@
         <xdr:cNvPr id="2049" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2884,7 +2866,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2941,7 +2923,7 @@
         <xdr:cNvPr id="3" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2998,7 +2980,7 @@
         <xdr:cNvPr id="4" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3055,7 +3037,7 @@
         <xdr:cNvPr id="5" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3112,7 +3094,7 @@
         <xdr:cNvPr id="6" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3169,7 +3151,7 @@
         <xdr:cNvPr id="7" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3226,7 +3208,7 @@
         <xdr:cNvPr id="8" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3283,7 +3265,7 @@
         <xdr:cNvPr id="9" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3340,7 +3322,7 @@
         <xdr:cNvPr id="10" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3397,7 +3379,7 @@
         <xdr:cNvPr id="11" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3454,7 +3436,7 @@
         <xdr:cNvPr id="12" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3511,7 +3493,7 @@
         <xdr:cNvPr id="13" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3568,7 +3550,7 @@
         <xdr:cNvPr id="14" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3625,7 +3607,7 @@
         <xdr:cNvPr id="15" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3682,7 +3664,7 @@
         <xdr:cNvPr id="16" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3739,7 +3721,7 @@
         <xdr:cNvPr id="17" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3796,7 +3778,7 @@
         <xdr:cNvPr id="18" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3845,7 +3827,7 @@
         <xdr:cNvPr id="19" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4208,140 +4190,140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" style="19" customWidth="1"/>
-    <col min="3" max="16384" width="14.5" style="15"/>
+    <col min="1" max="1" width="27.7109375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" style="19" customWidth="1"/>
+    <col min="3" max="16384" width="14.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B1" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C1" s="62" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B2" s="62"/>
       <c r="C2" s="62"/>
     </row>
-    <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C3" s="101">
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="12" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C4" s="102">
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="62"/>
       <c r="C5" s="62"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>117</v>
       </c>
       <c r="C7" s="24"/>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
         <v>118</v>
       </c>
       <c r="C8" s="23"/>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
         <v>116</v>
       </c>
       <c r="C9" s="23"/>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>119</v>
       </c>
       <c r="C10" s="24"/>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
         <v>120</v>
       </c>
       <c r="C11" s="24"/>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C12" s="24"/>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="15"/>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C15" s="23"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="12" t="s">
         <v>106</v>
       </c>
       <c r="C16" s="23"/>
     </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="12" t="s">
         <v>107</v>
       </c>
       <c r="C17" s="23"/>
     </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="12" t="s">
         <v>108</v>
       </c>
       <c r="C18" s="23"/>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="12" t="s">
         <v>109</v>
       </c>
@@ -4350,58 +4332,58 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="15"/>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="27" t="s">
         <v>112</v>
       </c>
       <c r="C22" s="23"/>
     </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="27" t="s">
         <v>113</v>
       </c>
       <c r="C23" s="23"/>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="27" t="s">
         <v>114</v>
       </c>
       <c r="C24" s="23"/>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="27" t="s">
         <v>115</v>
       </c>
       <c r="C25" s="23"/>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="16"/>
     </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="64" t="s">
         <v>103</v>
       </c>
       <c r="C29" s="25"/>
     </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="19" t="s">
         <v>102</v>
       </c>
@@ -4409,7 +4391,7 @@
       <c r="D30" s="20"/>
       <c r="E30" s="21"/>
     </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="19" t="s">
         <v>101</v>
       </c>
@@ -4417,48 +4399,48 @@
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
     </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="19" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C32" s="25"/>
     </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="19" t="s">
         <v>100</v>
       </c>
       <c r="C33" s="23"/>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="64" t="s">
         <v>104</v>
       </c>
       <c r="C34" s="25"/>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D35" s="20"/>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D36" s="20"/>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="23"/>
       <c r="D37" s="20"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="23"/>
       <c r="D38" s="20"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="19" t="s">
         <v>12</v>
       </c>
@@ -4466,7 +4448,7 @@
       <c r="D39" s="20"/>
       <c r="E39" s="21"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="19" t="s">
         <v>26</v>
       </c>
@@ -4477,52 +4459,52 @@
       <c r="D40" s="20"/>
       <c r="E40" s="20"/>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D41" s="20"/>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
         <v>73</v>
       </c>
       <c r="D42" s="20"/>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="19" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="20"/>
     </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" s="7"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="7"/>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" s="7"/>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C44" s="7"/>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="C45" s="7"/>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="C46" s="7"/>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="19" t="s">
-        <v>145</v>
-      </c>
       <c r="C47" s="7"/>
     </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="9" t="s">
         <v>122</v>
       </c>
@@ -4530,29 +4512,29 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C51" s="24"/>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="C51" s="24"/>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="19" t="s">
-        <v>153</v>
-      </c>
       <c r="C52" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="19" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C53" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
     </row>
   </sheetData>
@@ -4562,40 +4544,41 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="56" style="78" customWidth="1"/>
     <col min="2" max="2" width="20" style="57" customWidth="1"/>
-    <col min="3" max="3" width="20.5" style="56" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" style="56" customWidth="1"/>
-    <col min="5" max="16384" width="14.5" style="56"/>
+    <col min="3" max="3" width="20.42578125" style="56" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="56" customWidth="1"/>
+    <col min="5" max="16384" width="14.42578125" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="87" t="s">
-        <v>203</v>
+      <c r="B1" s="103" t="str">
+        <f>"baseline ("&amp;start_year&amp;") coverage"</f>
+        <v>baseline (2017) coverage</v>
       </c>
       <c r="C1" s="86" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D1" s="85" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="78" t="s">
         <v>29</v>
       </c>
@@ -4609,7 +4592,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="78" t="s">
         <v>97</v>
       </c>
@@ -4624,7 +4607,7 @@
       </c>
       <c r="E3" s="65"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="78" t="s">
         <v>61</v>
       </c>
@@ -4640,7 +4623,7 @@
       </c>
       <c r="E4" s="65"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="78" t="s">
         <v>68</v>
       </c>
@@ -4656,7 +4639,7 @@
       </c>
       <c r="E5" s="84"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="78" t="s">
         <v>63</v>
       </c>
@@ -4671,7 +4654,7 @@
       </c>
       <c r="E6" s="83"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="78" t="s">
         <v>64</v>
       </c>
@@ -4686,7 +4669,7 @@
       </c>
       <c r="E7" s="83"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="78" t="s">
         <v>62</v>
       </c>
@@ -4701,9 +4684,9 @@
       </c>
       <c r="E8" s="83"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="98" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B9" s="79">
         <v>0</v>
@@ -4715,9 +4698,9 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="98" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B10" s="79">
         <v>0</v>
@@ -4729,9 +4712,9 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="98" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B11" s="79">
         <v>0</v>
@@ -4743,9 +4726,9 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="98" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B12" s="79">
         <v>0</v>
@@ -4757,9 +4740,9 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B13" s="79">
         <v>0</v>
@@ -4771,9 +4754,9 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B14" s="79">
         <v>0</v>
@@ -4785,7 +4768,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78" t="s">
         <v>57</v>
       </c>
@@ -4800,7 +4783,7 @@
       </c>
       <c r="E15" s="65"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78" t="s">
         <v>47</v>
       </c>
@@ -4815,9 +4798,9 @@
       </c>
       <c r="E16" s="65"/>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B17" s="79">
         <v>0</v>
@@ -4830,9 +4813,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B18" s="79">
         <v>0</v>
@@ -4845,9 +4828,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="78" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B19" s="79">
         <v>0</v>
@@ -4860,9 +4843,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="78" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B20" s="79">
         <v>0</v>
@@ -4875,7 +4858,7 @@
       </c>
       <c r="E20" s="65"/>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="78" t="s">
         <v>34</v>
       </c>
@@ -4890,7 +4873,7 @@
       </c>
       <c r="E21" s="65"/>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="78" t="s">
         <v>99</v>
       </c>
@@ -4905,7 +4888,7 @@
       </c>
       <c r="E22" s="65"/>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="78" t="s">
         <v>98</v>
       </c>
@@ -4920,9 +4903,9 @@
       </c>
       <c r="E23" s="82"/>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="78" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B24" s="79">
         <v>0</v>
@@ -4935,7 +4918,7 @@
       </c>
       <c r="E24" s="65"/>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="78" t="s">
         <v>59</v>
       </c>
@@ -4950,7 +4933,7 @@
       </c>
       <c r="E25" s="65"/>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="78" t="s">
         <v>95</v>
       </c>
@@ -4964,7 +4947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="78" t="s">
         <v>58</v>
       </c>
@@ -4978,7 +4961,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="78" t="s">
         <v>67</v>
       </c>
@@ -4993,7 +4976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="78" t="s">
         <v>28</v>
       </c>
@@ -5007,7 +4990,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="78" t="s">
         <v>94</v>
       </c>
@@ -5021,7 +5004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="78" t="s">
         <v>93</v>
       </c>
@@ -5035,7 +5018,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="78" t="s">
         <v>92</v>
       </c>
@@ -5049,7 +5032,7 @@
         <v>50.26</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="78" t="s">
         <v>90</v>
       </c>
@@ -5063,7 +5046,7 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="57" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" s="57" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="78" t="s">
         <v>91</v>
       </c>
@@ -5078,7 +5061,7 @@
       </c>
       <c r="F34" s="56"/>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="78" t="s">
         <v>96</v>
       </c>
@@ -5092,7 +5075,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="78" t="s">
         <v>60</v>
       </c>
@@ -5106,7 +5089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F37" s="57"/>
     </row>
   </sheetData>
@@ -5119,7 +5102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -5129,32 +5112,32 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="88" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="88"/>
+    <col min="1" max="1" width="18.7109375" style="88" customWidth="1"/>
+    <col min="2" max="16384" width="10.85546875" style="88"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A1" s="93" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B1" s="92" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C1" s="92" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D1" s="92" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E1" s="92" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="91" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B2" s="90" t="s">
         <v>32</v>
@@ -5171,7 +5154,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="90"/>
       <c r="B3" s="90" t="s">
         <v>1</v>
@@ -5188,7 +5171,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="90"/>
       <c r="B4" s="90" t="s">
         <v>2</v>
@@ -5205,7 +5188,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="90"/>
       <c r="B5" s="90" t="s">
         <v>3</v>
@@ -5222,7 +5205,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="90"/>
       <c r="B6" s="90" t="s">
         <v>4</v>
@@ -5239,7 +5222,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" s="89"/>
     </row>
   </sheetData>
@@ -5248,7 +5231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -5258,83 +5241,83 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53" style="78" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.83203125" style="56" customWidth="1"/>
-    <col min="3" max="3" width="42.5" style="56" customWidth="1"/>
-    <col min="4" max="16384" width="11.5" style="56"/>
+    <col min="2" max="2" width="47.85546875" style="56" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" style="56" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="61" t="s">
         <v>70</v>
       </c>
       <c r="B1" s="61" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B2" s="72" t="s">
         <v>59</v>
       </c>
       <c r="C2" s="72"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B3" s="72" t="s">
         <v>59</v>
       </c>
       <c r="C3" s="72"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="78" t="s">
         <v>58</v>
       </c>
       <c r="B4" s="72" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C4" s="72"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="78" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B5" s="72" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C5" s="72"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="52"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="52"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="52"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="52"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="52"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="52"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="52"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="52"/>
     </row>
   </sheetData>
@@ -5345,7 +5328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -5355,85 +5338,85 @@
       <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.1640625" style="56" customWidth="1"/>
-    <col min="2" max="16384" width="11.5" style="56"/>
+    <col min="1" max="1" width="30.140625" style="56" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="61" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="72" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="72" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="72" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="72" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="72" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="72" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="72" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="72" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="72"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="72"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="72"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="72"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="72"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="72"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="72"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="72"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="72"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="72"/>
     </row>
   </sheetData>
@@ -5443,7 +5426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
@@ -5453,9 +5436,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -5475,7 +5458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>72</v>
       </c>
@@ -5500,7 +5483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
@@ -5525,7 +5508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
@@ -5557,7 +5540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -5567,19 +5550,19 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.83203125" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -5626,7 +5609,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -5677,9 +5660,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C3" s="54">
         <v>1</v>
@@ -5721,9 +5704,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="14" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C4" s="54">
         <v>0</v>
@@ -5767,9 +5750,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="14" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C5" s="54">
         <v>0</v>
@@ -5814,7 +5797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="52" t="s">
         <v>95</v>
       </c>
@@ -5858,7 +5841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
         <v>58</v>
       </c>
@@ -5904,7 +5887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
         <v>67</v>
       </c>
@@ -5952,7 +5935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="14" t="s">
         <v>28</v>
       </c>
@@ -5996,7 +5979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="52" t="s">
         <v>96</v>
       </c>
@@ -6040,7 +6023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="14" t="s">
         <v>60</v>
       </c>
@@ -6084,10 +6067,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="52"/>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>32</v>
       </c>
@@ -6138,7 +6121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="14" t="s">
         <v>97</v>
@@ -6183,10 +6166,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="14" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C15" s="55">
         <v>0</v>
@@ -6232,10 +6215,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="14" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C16" s="55">
         <v>0</v>
@@ -6281,7 +6264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="52" t="s">
         <v>57</v>
       </c>
@@ -6329,7 +6312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="14" t="s">
         <v>99</v>
       </c>
@@ -6373,7 +6356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="14" t="s">
         <v>98</v>
       </c>
@@ -6417,7 +6400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="52" t="s">
         <v>59</v>
       </c>
@@ -6465,10 +6448,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="52"/>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="96" t="s">
         <v>37</v>
       </c>
@@ -6515,9 +6498,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="98" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C23" s="55">
         <v>0</v>
@@ -6563,9 +6546,9 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="98" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C24" s="55">
         <v>0</v>
@@ -6611,9 +6594,9 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="98" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C25" s="55">
         <v>0</v>
@@ -6659,9 +6642,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="98" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C26" s="55">
         <v>0</v>
@@ -6704,7 +6687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="14"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -6714,7 +6697,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>35</v>
       </c>
@@ -6772,7 +6755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="14" t="s">
         <v>64</v>
       </c>
@@ -6827,7 +6810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="14" t="s">
         <v>62</v>
       </c>
@@ -6882,7 +6865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="14" t="s">
         <v>47</v>
       </c>
@@ -6926,7 +6909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="14" t="s">
         <v>34</v>
       </c>
@@ -6983,7 +6966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="52" t="s">
         <v>94</v>
       </c>
@@ -7027,7 +7010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="52" t="s">
         <v>93</v>
@@ -7072,7 +7055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="52" t="s">
         <v>92</v>
       </c>
@@ -7116,7 +7099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="52" t="s">
         <v>90</v>
       </c>
@@ -7160,7 +7143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="52" t="s">
         <v>91</v>
       </c>
@@ -7204,7 +7187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="52"/>
     </row>
   </sheetData>
@@ -7217,7 +7200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -7227,35 +7210,35 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" style="56" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="56" customWidth="1"/>
-    <col min="3" max="4" width="11.5" style="56"/>
-    <col min="5" max="5" width="17.5" style="56" customWidth="1"/>
-    <col min="6" max="16384" width="11.5" style="56"/>
+    <col min="1" max="1" width="33.7109375" style="56" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="56" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="56"/>
+    <col min="5" max="5" width="17.42578125" style="56" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="61" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B1" s="61" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E1" s="61" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="60" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B2" s="59">
         <v>0.9</v>
@@ -7271,9 +7254,9 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="60" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B3" s="59">
         <v>1</v>
@@ -7289,9 +7272,9 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="60" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B4" s="59">
         <v>1</v>
@@ -7307,9 +7290,9 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="60" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B5" s="59">
         <v>1</v>
@@ -7325,9 +7308,9 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="60" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B6" s="59">
         <v>1</v>
@@ -7343,9 +7326,9 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="60" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B7" s="59">
         <v>0.93</v>
@@ -7361,9 +7344,9 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="60" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B8" s="59">
         <v>0.5</v>
@@ -7379,9 +7362,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="60" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B9" s="59">
         <v>0.5</v>
@@ -7397,9 +7380,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="60" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B10" s="59">
         <v>0.98</v>
@@ -7415,7 +7398,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C11" s="57"/>
     </row>
   </sheetData>
@@ -7426,7 +7409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -7436,14 +7419,14 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="15" customWidth="1"/>
-    <col min="2" max="10" width="16.83203125" style="15" customWidth="1"/>
-    <col min="11" max="16384" width="14.5" style="15"/>
+    <col min="1" max="1" width="8.42578125" style="15" customWidth="1"/>
+    <col min="2" max="10" width="16.85546875" style="15" customWidth="1"/>
+    <col min="11" max="16384" width="14.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
@@ -7469,13 +7452,13 @@
         <v>125</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J1" s="31" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <f>start_year</f>
         <v>2017</v>
@@ -7499,7 +7482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
         <v>2018</v>
@@ -7523,7 +7506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f t="shared" si="2"/>
         <v>2019</v>
@@ -7547,7 +7530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -7571,7 +7554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f t="shared" si="2"/>
         <v>2021</v>
@@ -7595,7 +7578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -7619,7 +7602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f t="shared" si="2"/>
         <v>2023</v>
@@ -7643,7 +7626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f t="shared" si="2"/>
         <v>2024</v>
@@ -7667,7 +7650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f t="shared" si="2"/>
         <v>2025</v>
@@ -7691,7 +7674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f t="shared" si="2"/>
         <v>2026</v>
@@ -7715,7 +7698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f t="shared" si="2"/>
         <v>2027</v>
@@ -7739,7 +7722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f t="shared" si="2"/>
         <v>2028</v>
@@ -7763,7 +7746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <f t="shared" si="2"/>
         <v>2029</v>
@@ -7787,7 +7770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <f t="shared" si="2"/>
         <v>2030</v>
@@ -7811,7 +7794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -7835,7 +7818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -7859,7 +7842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -7883,7 +7866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -7907,7 +7890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -7931,7 +7914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -7955,7 +7938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -7979,7 +7962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8003,7 +7986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8027,7 +8010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8051,7 +8034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8075,7 +8058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8099,7 +8082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8123,7 +8106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8147,7 +8130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8171,7 +8154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8195,7 +8178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8219,7 +8202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8243,7 +8226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8267,7 +8250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8291,7 +8274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8315,7 +8298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8339,7 +8322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8363,7 +8346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8387,7 +8370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8423,25 +8406,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19:G27"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" customWidth="1"/>
     <col min="2" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>126</v>
+    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="str">
+        <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
+        <v>Percentage of deaths in baseline year (2017) attributable to cause</v>
       </c>
       <c r="B1" s="31" t="s">
         <v>1</v>
@@ -8462,7 +8446,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>74</v>
       </c>
@@ -8483,7 +8467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
         <v>7</v>
       </c>
@@ -8504,7 +8488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
         <v>8</v>
       </c>
@@ -8525,7 +8509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
         <v>10</v>
       </c>
@@ -8546,7 +8530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
         <v>13</v>
       </c>
@@ -8567,7 +8551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
         <v>14</v>
       </c>
@@ -8588,7 +8572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
         <v>27</v>
       </c>
@@ -8609,7 +8593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
         <v>15</v>
       </c>
@@ -8630,7 +8614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="32" t="s">
         <v>72</v>
       </c>
@@ -8645,7 +8629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
         <v>16</v>
       </c>
@@ -8660,7 +8644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="32" t="s">
         <v>17</v>
       </c>
@@ -8675,7 +8659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="32" t="s">
         <v>18</v>
       </c>
@@ -8690,7 +8674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="32" t="s">
         <v>19</v>
       </c>
@@ -8705,7 +8689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="32" t="s">
         <v>20</v>
       </c>
@@ -8720,7 +8704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="32" t="s">
         <v>21</v>
       </c>
@@ -8735,7 +8719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="32" t="s">
         <v>22</v>
       </c>
@@ -8750,7 +8734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="32" t="s">
         <v>23</v>
       </c>
@@ -8765,7 +8749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
         <v>38</v>
       </c>
@@ -8786,7 +8770,7 @@
       </c>
       <c r="G19" s="35"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="32" t="s">
         <v>39</v>
       </c>
@@ -8807,7 +8791,7 @@
       </c>
       <c r="G20" s="35"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="32" t="s">
         <v>40</v>
       </c>
@@ -8828,7 +8812,7 @@
       </c>
       <c r="G21" s="35"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="32" t="s">
         <v>41</v>
       </c>
@@ -8849,7 +8833,7 @@
       </c>
       <c r="G22" s="35"/>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="32" t="s">
         <v>42</v>
       </c>
@@ -8870,7 +8854,7 @@
       </c>
       <c r="G23" s="35"/>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="32" t="s">
         <v>43</v>
       </c>
@@ -8891,7 +8875,7 @@
       </c>
       <c r="G24" s="35"/>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="32" t="s">
         <v>44</v>
       </c>
@@ -8912,7 +8896,7 @@
       </c>
       <c r="G25" s="35"/>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="32" t="s">
         <v>45</v>
       </c>
@@ -8933,7 +8917,7 @@
       </c>
       <c r="G26" s="35"/>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="32" t="s">
         <v>46</v>
       </c>
@@ -8962,25 +8946,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="38" t="s">
-        <v>150</v>
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="38" t="str">
+        <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
+        <v>Percentage of population in each category in baseline year (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -9001,12 +8984,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>129</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>131</v>
       </c>
       <c r="C2" s="49" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -9029,36 +9012,36 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C3" s="49" t="str">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(C4:C5), "")</f>
         <v/>
       </c>
       <c r="D3" s="49" t="str">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE) - SUM(D4:D5), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(D4:D5), "")</f>
         <v/>
       </c>
       <c r="E3" s="49" t="str">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE) - SUM(E4:E5), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(E4:E5), "")</f>
         <v/>
       </c>
       <c r="F3" s="49" t="str">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE) - SUM(F4:F5), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(F4:F5), "")</f>
         <v/>
       </c>
       <c r="G3" s="49" t="str">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE) - SUM(G4:G5), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(G4:G5), "")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
@@ -9066,10 +9049,10 @@
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C5" s="39"/>
       <c r="D5" s="39"/>
@@ -9077,7 +9060,7 @@
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="17"/>
       <c r="C6" s="40"/>
       <c r="D6" s="40"/>
@@ -9085,7 +9068,7 @@
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="17"/>
       <c r="C7" s="40"/>
       <c r="D7" s="40"/>
@@ -9093,12 +9076,12 @@
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C8" s="49" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -9121,34 +9104,34 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C9" s="49" t="str">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(C10:C11), "")</f>
         <v/>
       </c>
       <c r="D9" s="49" t="str">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE) - SUM(D10:D11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(D10:D11), "")</f>
         <v/>
       </c>
       <c r="E9" s="49" t="str">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE) - SUM(E10:E11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(E10:E11), "")</f>
         <v/>
       </c>
       <c r="F9" s="49" t="str">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE) - SUM(F10:F11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(F10:F11), "")</f>
         <v/>
       </c>
       <c r="G9" s="49" t="str">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE) - SUM(G10:G11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(G10:G11), "")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
@@ -9156,9 +9139,9 @@
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C11" s="39"/>
       <c r="D11" s="39"/>
@@ -9166,7 +9149,7 @@
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -9180,7 +9163,7 @@
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
     </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>71</v>
       </c>
@@ -9224,9 +9207,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C14" s="50"/>
       <c r="D14" s="50"/>
@@ -9242,7 +9225,7 @@
       <c r="N14" s="51"/>
       <c r="O14" s="51"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="19" t="s">
         <v>69</v>
       </c>
@@ -9299,14 +9282,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -9321,25 +9304,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.83203125" customWidth="1"/>
-    <col min="2" max="7" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="7" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="38" t="s">
-        <v>127</v>
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="38" t="str">
+        <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
+        <v>Percentage of children in each category in baseline year (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -9360,12 +9344,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
@@ -9373,9 +9357,9 @@
       <c r="F2" s="39"/>
       <c r="G2" s="39"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="65" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="39"/>
@@ -9383,9 +9367,9 @@
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="65" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
@@ -9393,9 +9377,9 @@
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="65" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C5" s="49">
         <f>1-SUM(C2:C4)</f>
@@ -9424,7 +9408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -9434,18 +9418,18 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C1">
         <v>2010</v>
@@ -9475,12 +9459,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>159</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
@@ -9492,15 +9476,15 @@
       <c r="J2" s="39"/>
       <c r="K2" s="39"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="17"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
@@ -9512,15 +9496,15 @@
       <c r="J4" s="39"/>
       <c r="K4" s="39"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="17"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C6" s="39"/>
       <c r="D6" s="39"/>
@@ -9532,7 +9516,7 @@
       <c r="J6" s="39"/>
       <c r="K6" s="39"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="17" t="s">
         <v>32</v>
       </c>
@@ -9546,9 +9530,9 @@
       <c r="J7" s="39"/>
       <c r="K7" s="39"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="17" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
@@ -9560,12 +9544,12 @@
       <c r="J8" s="39"/>
       <c r="K8" s="39"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
@@ -9577,9 +9561,9 @@
       <c r="J10" s="39"/>
       <c r="K10" s="39"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="53" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C11" s="39"/>
       <c r="D11" s="39"/>
@@ -9591,12 +9575,12 @@
       <c r="J11" s="39"/>
       <c r="K11" s="39"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B13" s="53" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
@@ -9608,9 +9592,9 @@
       <c r="J13" s="39"/>
       <c r="K13" s="39"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="19" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
@@ -9629,106 +9613,107 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.1640625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="15" customWidth="1"/>
-    <col min="4" max="16384" width="11.5" style="15"/>
+    <col min="1" max="1" width="37.140625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="15" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="44" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="44" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B1" s="63" t="s">
-        <v>184</v>
-      </c>
-      <c r="C1" s="43" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>180</v>
+      </c>
+      <c r="C1" s="43" t="str">
+        <f>"Percentage of births in category in baseline year ("&amp;start_year&amp;")"</f>
+        <v>Percentage of births in category in baseline year (2017)</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B2" s="41" t="s">
         <v>76</v>
       </c>
       <c r="C2" s="45"/>
     </row>
-    <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="41" t="s">
         <v>77</v>
       </c>
       <c r="C3" s="45"/>
     </row>
-    <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="41" t="s">
         <v>78</v>
       </c>
       <c r="C4" s="45"/>
     </row>
-    <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="41" t="s">
         <v>79</v>
       </c>
       <c r="C5" s="45"/>
     </row>
-    <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="41" t="s">
         <v>80</v>
       </c>
       <c r="C6" s="45"/>
     </row>
-    <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="41" t="s">
         <v>81</v>
       </c>
       <c r="C7" s="45"/>
     </row>
-    <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="41" t="s">
         <v>82</v>
       </c>
       <c r="C8" s="45"/>
     </row>
-    <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="41" t="s">
         <v>83</v>
       </c>
       <c r="C9" s="45"/>
     </row>
-    <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="41" t="s">
         <v>84</v>
       </c>
       <c r="C10" s="45"/>
     </row>
-    <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="48" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C11" s="47">
         <f>SUM(C2:C10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
     </row>
-    <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>85</v>
       </c>
@@ -9737,27 +9722,27 @@
       </c>
       <c r="C13" s="45"/>
     </row>
-    <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="41" t="s">
         <v>87</v>
       </c>
       <c r="C14" s="45"/>
     </row>
-    <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="41" t="s">
         <v>88</v>
       </c>
       <c r="C15" s="45"/>
     </row>
-    <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="41" t="s">
         <v>89</v>
       </c>
       <c r="C16" s="45"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="48" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C17" s="47">
         <f>SUM(C13:C16)</f>
@@ -9771,7 +9756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -9781,34 +9766,34 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="56" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" style="56" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="56" customWidth="1"/>
-    <col min="4" max="16384" width="11.5" style="56"/>
+    <col min="2" max="2" width="19.140625" style="56" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="56" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="76" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B1" s="77" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C1" s="77" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D1" s="77" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E1" s="77" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="74" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B2" s="69" t="s">
         <v>32</v>
@@ -9820,7 +9805,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="70"/>
       <c r="B3" s="69" t="s">
         <v>1</v>
@@ -9832,7 +9817,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="70"/>
       <c r="B4" s="69" t="s">
         <v>2</v>
@@ -9844,7 +9829,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="70"/>
       <c r="B5" s="69" t="s">
         <v>3</v>
@@ -9856,7 +9841,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="70"/>
       <c r="B6" s="69" t="s">
         <v>4</v>
@@ -9868,18 +9853,18 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="70"/>
       <c r="B7" s="69" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C7" s="68"/>
       <c r="D7" s="67"/>
       <c r="E7" s="72"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="76" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B9" s="75" t="s">
         <v>32</v>
@@ -9888,7 +9873,7 @@
       <c r="D9" s="72"/>
       <c r="E9" s="95"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="70"/>
       <c r="B10" s="69" t="s">
         <v>1</v>
@@ -9897,7 +9882,7 @@
       <c r="D10" s="72"/>
       <c r="E10" s="94"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="70"/>
       <c r="B11" s="69" t="s">
         <v>2</v>
@@ -9906,7 +9891,7 @@
       <c r="D11" s="72"/>
       <c r="E11" s="94"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="70"/>
       <c r="B12" s="69" t="s">
         <v>3</v>
@@ -9915,7 +9900,7 @@
       <c r="D12" s="72"/>
       <c r="E12" s="94"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="70"/>
       <c r="B13" s="69" t="s">
         <v>4</v>
@@ -9924,18 +9909,18 @@
       <c r="D13" s="72"/>
       <c r="E13" s="94"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="70"/>
       <c r="B14" s="69" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C14" s="68"/>
       <c r="D14" s="67"/>
       <c r="E14" s="72"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="74" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B16" s="69" t="s">
         <v>32</v>
@@ -9947,7 +9932,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="70"/>
       <c r="B17" s="69" t="s">
         <v>1</v>
@@ -9959,7 +9944,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="70"/>
       <c r="B18" s="69" t="s">
         <v>2</v>
@@ -9971,7 +9956,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="70"/>
       <c r="B19" s="69" t="s">
         <v>3</v>
@@ -9983,7 +9968,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="70"/>
       <c r="B20" s="69" t="s">
         <v>4</v>
@@ -9995,10 +9980,10 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="70"/>
       <c r="B21" s="69" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C21" s="68"/>
       <c r="D21" s="67"/>
@@ -10011,39 +9996,39 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B1" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="100" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" s="100" t="s">
         <v>207</v>
       </c>
-      <c r="C1" s="100" t="s">
-        <v>208</v>
-      </c>
-      <c r="D1" s="100" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="100" t="s">
         <v>70</v>
       </c>
@@ -10051,19 +10036,19 @@
         <v>67</v>
       </c>
       <c r="C2" s="69" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D2" s="72"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="100" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B3" s="69" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C3" s="69" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D3" s="72"/>
     </row>

--- a/templates/template_input.xlsx
+++ b/templates/template_input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-6180" yWindow="-21135" windowWidth="20730" windowHeight="11760" tabRatio="961" activeTab="3"/>
+    <workbookView xWindow="-6180" yWindow="-21135" windowWidth="20730" windowHeight="11760" tabRatio="961" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -772,15 +772,9 @@
     <t>IYCF package</t>
   </si>
   <si>
-    <t>unit cost</t>
-  </si>
-  <si>
     <t>saturation coverage of target population</t>
   </si>
   <si>
-    <t>Unit costs by delivery modality and target population</t>
-  </si>
-  <si>
     <t>Threshold dependency</t>
   </si>
   <si>
@@ -830,6 +824,12 @@
   </si>
   <si>
     <t>Baseline year (projection start year)</t>
+  </si>
+  <si>
+    <t>unit cost (US$)</t>
+  </si>
+  <si>
+    <t>Unit costs (US$) by delivery modality and target population</t>
   </si>
 </sst>
 </file>
@@ -2809,7 +2809,7 @@
         <xdr:cNvPr id="2049" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000001080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2866,7 +2866,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2923,7 +2923,7 @@
         <xdr:cNvPr id="3" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2980,7 +2980,7 @@
         <xdr:cNvPr id="4" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3037,7 +3037,7 @@
         <xdr:cNvPr id="5" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3094,7 +3094,7 @@
         <xdr:cNvPr id="6" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3151,7 +3151,7 @@
         <xdr:cNvPr id="7" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3208,7 +3208,7 @@
         <xdr:cNvPr id="8" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3265,7 +3265,7 @@
         <xdr:cNvPr id="9" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3322,7 +3322,7 @@
         <xdr:cNvPr id="10" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3379,7 +3379,7 @@
         <xdr:cNvPr id="11" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3436,7 +3436,7 @@
         <xdr:cNvPr id="12" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3493,7 +3493,7 @@
         <xdr:cNvPr id="13" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3550,7 +3550,7 @@
         <xdr:cNvPr id="14" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3607,7 +3607,7 @@
         <xdr:cNvPr id="15" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3664,7 +3664,7 @@
         <xdr:cNvPr id="16" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3721,7 +3721,7 @@
         <xdr:cNvPr id="17" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3778,7 +3778,7 @@
         <xdr:cNvPr id="18" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3827,7 +3827,7 @@
         <xdr:cNvPr id="19" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4220,7 +4220,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B2" s="62"/>
       <c r="C2" s="62"/>
@@ -4228,7 +4228,7 @@
     <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C3" s="101">
         <v>2017</v>
@@ -4237,7 +4237,7 @@
     <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C4" s="102">
         <v>2030</v>
@@ -4551,7 +4551,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4572,10 +4572,10 @@
         <v>baseline (2017) coverage</v>
       </c>
       <c r="C1" s="86" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D1" s="85" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4686,7 +4686,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="98" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B9" s="79">
         <v>0</v>
@@ -4700,7 +4700,7 @@
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="98" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B10" s="79">
         <v>0</v>
@@ -4714,7 +4714,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="98" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B11" s="79">
         <v>0</v>
@@ -4728,7 +4728,7 @@
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="98" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B12" s="79">
         <v>0</v>
@@ -4742,7 +4742,7 @@
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B13" s="79">
         <v>0</v>
@@ -4756,7 +4756,7 @@
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B14" s="79">
         <v>0</v>
@@ -5109,7 +5109,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5120,7 +5120,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A1" s="93" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="B1" s="92" t="s">
         <v>195</v>
@@ -5254,15 +5254,15 @@
         <v>70</v>
       </c>
       <c r="B1" s="61" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B2" s="72" t="s">
         <v>59</v>
@@ -5271,7 +5271,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B3" s="72" t="s">
         <v>59</v>
@@ -6169,7 +6169,7 @@
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C15" s="55">
         <v>0</v>
@@ -6218,7 +6218,7 @@
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C16" s="55">
         <v>0</v>
@@ -6500,7 +6500,7 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="98" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C23" s="55">
         <v>0</v>
@@ -6548,7 +6548,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="98" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C24" s="55">
         <v>0</v>
@@ -6596,7 +6596,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="98" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C25" s="55">
         <v>0</v>
@@ -6644,7 +6644,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="98" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C26" s="55">
         <v>0</v>
@@ -8952,7 +8952,7 @@
   </sheetPr>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9310,7 +9310,7 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -9620,7 +9620,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10019,13 +10019,13 @@
         <v>180</v>
       </c>
       <c r="B1" s="77" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C1" s="100" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D1" s="100" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -10036,19 +10036,19 @@
         <v>67</v>
       </c>
       <c r="C2" s="69" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D2" s="72"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="100" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B3" s="69" t="s">
         <v>194</v>
       </c>
       <c r="C3" s="69" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D3" s="72"/>
     </row>

--- a/templates/template_input.xlsx
+++ b/templates/template_input.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/github_projects/Nutrition/templates/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C7CF0C83-F5F7-3742-A102-DFAD340A86FD}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6180" yWindow="-21135" windowWidth="20730" windowHeight="11760" tabRatio="961" activeTab="4"/>
+    <workbookView xWindow="-38400" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="961" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -21,7 +27,7 @@
     <sheet name="Program dependencies" sheetId="58" r:id="rId12"/>
     <sheet name="Reference programs" sheetId="59" state="hidden" r:id="rId13"/>
     <sheet name="Incidence of conditions" sheetId="7" state="hidden" r:id="rId14"/>
-    <sheet name="Programs target population" sheetId="21" state="hidden" r:id="rId15"/>
+    <sheet name="Programs target population" sheetId="21" r:id="rId15"/>
     <sheet name="Programs family planning" sheetId="54" state="hidden" r:id="rId16"/>
   </sheets>
   <definedNames>
@@ -68,7 +74,7 @@
     <definedName name="term_SGA">'Baseline year population inputs'!$C$39</definedName>
     <definedName name="U5_mortality">'Baseline year population inputs'!$C$31</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -78,12 +84,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -107,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -136,12 +142,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -179,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="218">
   <si>
     <t>year</t>
   </si>
@@ -830,12 +836,15 @@
   </si>
   <si>
     <t>Unit costs (US$) by delivery modality and target population</t>
+  </si>
+  <si>
+    <t>Kangaroo mother care</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -2749,8 +2758,8 @@
     <cellStyle name="Hyperlink" xfId="721" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="723" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="725"/>
-    <cellStyle name="Normal 3" xfId="726"/>
+    <cellStyle name="Normal 2" xfId="725" xr:uid="{00000000-0005-0000-0000-0000D4020000}"/>
+    <cellStyle name="Normal 3" xfId="726" xr:uid="{00000000-0005-0000-0000-0000D5020000}"/>
     <cellStyle name="Percent" xfId="10" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
@@ -2809,7 +2818,7 @@
         <xdr:cNvPr id="2049" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2866,7 +2875,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2923,7 +2932,7 @@
         <xdr:cNvPr id="3" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2980,7 +2989,7 @@
         <xdr:cNvPr id="4" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3037,7 +3046,7 @@
         <xdr:cNvPr id="5" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3094,7 +3103,7 @@
         <xdr:cNvPr id="6" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3151,7 +3160,7 @@
         <xdr:cNvPr id="7" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3208,7 +3217,7 @@
         <xdr:cNvPr id="8" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3265,7 +3274,7 @@
         <xdr:cNvPr id="9" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3322,7 +3331,7 @@
         <xdr:cNvPr id="10" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3379,7 +3388,7 @@
         <xdr:cNvPr id="11" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3436,7 +3445,7 @@
         <xdr:cNvPr id="12" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3493,7 +3502,7 @@
         <xdr:cNvPr id="13" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3550,7 +3559,7 @@
         <xdr:cNvPr id="14" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3607,7 +3616,7 @@
         <xdr:cNvPr id="15" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3664,7 +3673,7 @@
         <xdr:cNvPr id="16" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3721,7 +3730,7 @@
         <xdr:cNvPr id="17" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3778,7 +3787,7 @@
         <xdr:cNvPr id="18" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3827,7 +3836,7 @@
         <xdr:cNvPr id="19" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4190,7 +4199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -4200,14 +4209,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="15" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" style="19" customWidth="1"/>
-    <col min="3" max="16384" width="14.42578125" style="15"/>
+    <col min="1" max="1" width="27.6640625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="19" customWidth="1"/>
+    <col min="3" max="16384" width="14.5" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>111</v>
       </c>
@@ -4218,14 +4227,14 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
         <v>212</v>
       </c>
       <c r="B2" s="62"/>
       <c r="C2" s="62"/>
     </row>
-    <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="9" t="s">
         <v>214</v>
@@ -4234,7 +4243,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="12" t="s">
         <v>213</v>
@@ -4243,87 +4252,87 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="62"/>
       <c r="C5" s="62"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9" t="s">
         <v>117</v>
       </c>
       <c r="C7" s="24"/>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="12" t="s">
         <v>118</v>
       </c>
       <c r="C8" s="23"/>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="12" t="s">
         <v>116</v>
       </c>
       <c r="C9" s="23"/>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9" t="s">
         <v>119</v>
       </c>
       <c r="C10" s="24"/>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9" t="s">
         <v>120</v>
       </c>
       <c r="C11" s="24"/>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C12" s="24"/>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="15"/>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C15" s="23"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="12" t="s">
         <v>106</v>
       </c>
       <c r="C16" s="23"/>
     </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="12" t="s">
         <v>107</v>
       </c>
       <c r="C17" s="23"/>
     </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="12" t="s">
         <v>108</v>
       </c>
       <c r="C18" s="23"/>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="12" t="s">
         <v>109</v>
       </c>
@@ -4332,58 +4341,58 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="15"/>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="15" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="27" t="s">
         <v>112</v>
       </c>
       <c r="C22" s="23"/>
     </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="27" t="s">
         <v>113</v>
       </c>
       <c r="C23" s="23"/>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="27" t="s">
         <v>114</v>
       </c>
       <c r="C24" s="23"/>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="27" t="s">
         <v>115</v>
       </c>
       <c r="C25" s="23"/>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="16"/>
     </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="64" t="s">
         <v>103</v>
       </c>
       <c r="C29" s="25"/>
     </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="19" t="s">
         <v>102</v>
       </c>
@@ -4391,7 +4400,7 @@
       <c r="D30" s="20"/>
       <c r="E30" s="21"/>
     </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="19" t="s">
         <v>101</v>
       </c>
@@ -4399,48 +4408,48 @@
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
     </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="19" t="s">
         <v>187</v>
       </c>
       <c r="C32" s="25"/>
     </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="19" t="s">
         <v>100</v>
       </c>
       <c r="C33" s="23"/>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="64" t="s">
         <v>104</v>
       </c>
       <c r="C34" s="25"/>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D35" s="20"/>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="15" t="s">
         <v>147</v>
       </c>
       <c r="D36" s="20"/>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="23"/>
       <c r="D37" s="20"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="23"/>
       <c r="D38" s="20"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="19" t="s">
         <v>12</v>
       </c>
@@ -4448,7 +4457,7 @@
       <c r="D39" s="20"/>
       <c r="E39" s="21"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="19" t="s">
         <v>26</v>
       </c>
@@ -4459,52 +4468,52 @@
       <c r="D40" s="20"/>
       <c r="E40" s="20"/>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D41" s="20"/>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="15" t="s">
         <v>73</v>
       </c>
       <c r="D42" s="20"/>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="19" t="s">
         <v>138</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="20"/>
     </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="19" t="s">
         <v>139</v>
       </c>
       <c r="C44" s="7"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="19" t="s">
         <v>140</v>
       </c>
       <c r="C45" s="7"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="19" t="s">
         <v>141</v>
       </c>
       <c r="C46" s="7"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="19" t="s">
         <v>142</v>
       </c>
       <c r="C47" s="7"/>
     </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="15" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="9" t="s">
         <v>122</v>
       </c>
@@ -4512,13 +4521,13 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="19" t="s">
         <v>146</v>
       </c>
       <c r="C51" s="24"/>
     </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="19" t="s">
         <v>149</v>
       </c>
@@ -4526,7 +4535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="19" t="s">
         <v>150</v>
       </c>
@@ -4534,7 +4543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4"/>
     </row>
   </sheetData>
@@ -4544,26 +4553,26 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="56" style="78" customWidth="1"/>
     <col min="2" max="2" width="20" style="57" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="56" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="56" customWidth="1"/>
-    <col min="5" max="16384" width="14.42578125" style="56"/>
+    <col min="3" max="3" width="20.5" style="56" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" style="56" customWidth="1"/>
+    <col min="5" max="16384" width="14.5" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.15">
       <c r="A1" s="87" t="s">
         <v>70</v>
       </c>
@@ -4578,7 +4587,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="78" t="s">
         <v>29</v>
       </c>
@@ -4592,7 +4601,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="78" t="s">
         <v>97</v>
       </c>
@@ -4607,7 +4616,7 @@
       </c>
       <c r="E3" s="65"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="78" t="s">
         <v>61</v>
       </c>
@@ -4623,7 +4632,7 @@
       </c>
       <c r="E4" s="65"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="78" t="s">
         <v>68</v>
       </c>
@@ -4639,7 +4648,7 @@
       </c>
       <c r="E5" s="84"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="78" t="s">
         <v>63</v>
       </c>
@@ -4654,7 +4663,7 @@
       </c>
       <c r="E6" s="83"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="78" t="s">
         <v>64</v>
       </c>
@@ -4669,7 +4678,7 @@
       </c>
       <c r="E7" s="83"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="78" t="s">
         <v>62</v>
       </c>
@@ -4684,7 +4693,7 @@
       </c>
       <c r="E8" s="83"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="98" t="s">
         <v>207</v>
       </c>
@@ -4698,7 +4707,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="98" t="s">
         <v>208</v>
       </c>
@@ -4712,7 +4721,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="98" t="s">
         <v>209</v>
       </c>
@@ -4726,7 +4735,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="98" t="s">
         <v>210</v>
       </c>
@@ -4740,7 +4749,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14" t="s">
         <v>206</v>
       </c>
@@ -4754,7 +4763,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14" t="s">
         <v>211</v>
       </c>
@@ -4768,7 +4777,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="78" t="s">
         <v>57</v>
       </c>
@@ -4783,7 +4792,7 @@
       </c>
       <c r="E15" s="65"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="78" t="s">
         <v>47</v>
       </c>
@@ -4798,7 +4807,7 @@
       </c>
       <c r="E16" s="65"/>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="78" t="s">
         <v>191</v>
       </c>
@@ -4813,7 +4822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="78" t="s">
         <v>190</v>
       </c>
@@ -4828,7 +4837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="78" t="s">
         <v>189</v>
       </c>
@@ -4843,9 +4852,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="78" t="s">
-        <v>152</v>
+        <v>217</v>
       </c>
       <c r="B20" s="79">
         <v>0</v>
@@ -4854,13 +4863,12 @@
         <v>0.95</v>
       </c>
       <c r="D20" s="80">
-        <v>50</v>
-      </c>
-      <c r="E20" s="65"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8.84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="78" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="B21" s="79">
         <v>0</v>
@@ -4869,13 +4877,13 @@
         <v>0.95</v>
       </c>
       <c r="D21" s="80">
-        <v>2.61</v>
+        <v>50</v>
       </c>
       <c r="E21" s="65"/>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="78" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="B22" s="79">
         <v>0</v>
@@ -4884,13 +4892,13 @@
         <v>0.95</v>
       </c>
       <c r="D22" s="80">
-        <v>1</v>
+        <v>2.61</v>
       </c>
       <c r="E22" s="65"/>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="78" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B23" s="79">
         <v>0</v>
@@ -4901,11 +4909,11 @@
       <c r="D23" s="80">
         <v>1</v>
       </c>
-      <c r="E23" s="82"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E23" s="65"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="78" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="B24" s="79">
         <v>0</v>
@@ -4916,11 +4924,11 @@
       <c r="D24" s="80">
         <v>1</v>
       </c>
-      <c r="E24" s="65"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E24" s="82"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="78" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="B25" s="79">
         <v>0</v>
@@ -4929,13 +4937,13 @@
         <v>0.95</v>
       </c>
       <c r="D25" s="80">
-        <v>2.99</v>
+        <v>1</v>
       </c>
       <c r="E25" s="65"/>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="78" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="B26" s="79">
         <v>0</v>
@@ -4944,12 +4952,13 @@
         <v>0.95</v>
       </c>
       <c r="D26" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2.99</v>
+      </c>
+      <c r="E26" s="65"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="78" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="B27" s="79">
         <v>0</v>
@@ -4958,12 +4967,12 @@
         <v>0.95</v>
       </c>
       <c r="D27" s="80">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="78" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B28" s="79">
         <v>0</v>
@@ -4971,14 +4980,13 @@
       <c r="C28" s="79">
         <v>0.95</v>
       </c>
-      <c r="D28" s="81">
-        <f>90*AVERAGE('Incidence of conditions'!B4:F4) + 40*AVERAGE('Incidence of conditions'!B3:F3)*IF(ISBLANK(manage_mam), 0, 1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D28" s="80">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="78" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="B29" s="79">
         <v>0</v>
@@ -4986,13 +4994,14 @@
       <c r="C29" s="79">
         <v>0.95</v>
       </c>
-      <c r="D29" s="80">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D29" s="81">
+        <f>90*AVERAGE('Incidence of conditions'!B4:F4) + 40*AVERAGE('Incidence of conditions'!B3:F3)*IF(ISBLANK(manage_mam), 0, 1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="78" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="B30" s="79">
         <v>0</v>
@@ -5001,12 +5010,12 @@
         <v>0.95</v>
       </c>
       <c r="D30" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="78" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B31" s="79">
         <v>0</v>
@@ -5015,12 +5024,12 @@
         <v>0.95</v>
       </c>
       <c r="D31" s="80">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="78" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B32" s="79">
         <v>0</v>
@@ -5029,12 +5038,12 @@
         <v>0.95</v>
       </c>
       <c r="D32" s="80">
-        <v>50.26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="78" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B33" s="79">
         <v>0</v>
@@ -5043,12 +5052,12 @@
         <v>0.95</v>
       </c>
       <c r="D33" s="80">
-        <v>36.1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="57" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>50.26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="78" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B34" s="79">
         <v>0</v>
@@ -5057,13 +5066,12 @@
         <v>0.95</v>
       </c>
       <c r="D34" s="80">
-        <v>231.85</v>
-      </c>
-      <c r="F34" s="56"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="57" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="78" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B35" s="79">
         <v>0</v>
@@ -5072,12 +5080,13 @@
         <v>0.95</v>
       </c>
       <c r="D35" s="80">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>231.85</v>
+      </c>
+      <c r="F35" s="56"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="78" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="B36" s="79">
         <v>0</v>
@@ -5086,15 +5095,29 @@
         <v>0.95</v>
       </c>
       <c r="D36" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F37" s="57"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="79">
+        <v>0</v>
+      </c>
+      <c r="C37" s="79">
+        <v>0.95</v>
+      </c>
+      <c r="D37" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F38" s="57"/>
     </row>
   </sheetData>
-  <sortState ref="A2:D36">
-    <sortCondition ref="A2:A36"/>
+  <sortState ref="A2:D37">
+    <sortCondition ref="A2:A37"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5102,7 +5125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -5112,13 +5135,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="88" customWidth="1"/>
-    <col min="2" max="16384" width="10.85546875" style="88"/>
+    <col min="1" max="1" width="18.6640625" style="88" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="88"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="40" x14ac:dyDescent="0.2">
       <c r="A1" s="93" t="s">
         <v>216</v>
       </c>
@@ -5135,7 +5158,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="91" t="s">
         <v>180</v>
       </c>
@@ -5154,7 +5177,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="90"/>
       <c r="B3" s="90" t="s">
         <v>1</v>
@@ -5171,7 +5194,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="90"/>
       <c r="B4" s="90" t="s">
         <v>2</v>
@@ -5188,7 +5211,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="90"/>
       <c r="B5" s="90" t="s">
         <v>3</v>
@@ -5205,7 +5228,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="90"/>
       <c r="B6" s="90" t="s">
         <v>4</v>
@@ -5222,7 +5245,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C9" s="89"/>
     </row>
   </sheetData>
@@ -5231,7 +5254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -5241,15 +5264,15 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="53" style="78" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.85546875" style="56" customWidth="1"/>
-    <col min="3" max="3" width="42.42578125" style="56" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="56"/>
+    <col min="2" max="2" width="47.83203125" style="56" customWidth="1"/>
+    <col min="3" max="3" width="42.5" style="56" customWidth="1"/>
+    <col min="4" max="16384" width="11.5" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="61" t="s">
         <v>70</v>
       </c>
@@ -5260,7 +5283,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
         <v>206</v>
       </c>
@@ -5269,7 +5292,7 @@
       </c>
       <c r="C2" s="72"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
         <v>211</v>
       </c>
@@ -5278,7 +5301,7 @@
       </c>
       <c r="C3" s="72"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="78" t="s">
         <v>58</v>
       </c>
@@ -5287,7 +5310,7 @@
       </c>
       <c r="C4" s="72"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="78" t="s">
         <v>153</v>
       </c>
@@ -5296,28 +5319,28 @@
       </c>
       <c r="C5" s="72"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="52"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="52"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="52"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="52"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="52"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="52"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="52"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="52"/>
     </row>
   </sheetData>
@@ -5328,7 +5351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -5338,85 +5361,85 @@
       <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="56" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="56"/>
+    <col min="1" max="1" width="30.1640625" style="56" customWidth="1"/>
+    <col min="2" max="16384" width="11.5" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="61" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="72" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="72" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="72" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="72" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="72" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="72" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="72" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="72" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="72"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="72"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="72"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="72"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="72"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="72"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="72"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="72"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="72"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="72"/>
     </row>
   </sheetData>
@@ -5426,7 +5449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
@@ -5436,9 +5459,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -5458,7 +5481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>72</v>
       </c>
@@ -5483,7 +5506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
@@ -5508,7 +5531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
@@ -5540,29 +5563,29 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.83203125" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -5609,7 +5632,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -5660,7 +5683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="9" t="s">
         <v>165</v>
       </c>
@@ -5704,455 +5727,454 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="14" t="s">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="54">
+        <v>1</v>
+      </c>
+      <c r="D4" s="54">
+        <v>0</v>
+      </c>
+      <c r="E4" s="54">
+        <v>0</v>
+      </c>
+      <c r="F4" s="54">
+        <v>0</v>
+      </c>
+      <c r="G4" s="54">
+        <v>0</v>
+      </c>
+      <c r="H4" s="55">
+        <v>0</v>
+      </c>
+      <c r="I4" s="55">
+        <v>0</v>
+      </c>
+      <c r="J4" s="55">
+        <v>0</v>
+      </c>
+      <c r="K4" s="55">
+        <v>0</v>
+      </c>
+      <c r="L4" s="55">
+        <v>0</v>
+      </c>
+      <c r="M4" s="55">
+        <v>0</v>
+      </c>
+      <c r="N4" s="55">
+        <v>0</v>
+      </c>
+      <c r="O4" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="C4" s="54">
-        <v>0</v>
-      </c>
-      <c r="D4" s="54">
-        <v>0</v>
-      </c>
-      <c r="E4" s="54">
+      <c r="C5" s="54">
+        <v>0</v>
+      </c>
+      <c r="D5" s="54">
+        <v>0</v>
+      </c>
+      <c r="E5" s="54">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="F4" s="54">
+      <c r="F5" s="54">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="G4" s="54">
-        <v>0</v>
-      </c>
-      <c r="H4" s="55">
-        <v>0</v>
-      </c>
-      <c r="I4" s="55">
-        <v>0</v>
-      </c>
-      <c r="J4" s="55">
-        <v>0</v>
-      </c>
-      <c r="K4" s="55">
-        <v>0</v>
-      </c>
-      <c r="L4" s="55">
-        <v>0</v>
-      </c>
-      <c r="M4" s="55">
-        <v>0</v>
-      </c>
-      <c r="N4" s="55">
-        <v>0</v>
-      </c>
-      <c r="O4" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="14" t="s">
+      <c r="G5" s="54">
+        <v>0</v>
+      </c>
+      <c r="H5" s="55">
+        <v>0</v>
+      </c>
+      <c r="I5" s="55">
+        <v>0</v>
+      </c>
+      <c r="J5" s="55">
+        <v>0</v>
+      </c>
+      <c r="K5" s="55">
+        <v>0</v>
+      </c>
+      <c r="L5" s="55">
+        <v>0</v>
+      </c>
+      <c r="M5" s="55">
+        <v>0</v>
+      </c>
+      <c r="N5" s="55">
+        <v>0</v>
+      </c>
+      <c r="O5" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="54">
-        <v>0</v>
-      </c>
-      <c r="D5" s="54">
-        <v>0</v>
-      </c>
-      <c r="E5" s="54">
+      <c r="C6" s="54">
+        <v>0</v>
+      </c>
+      <c r="D6" s="54">
+        <v>0</v>
+      </c>
+      <c r="E6" s="54">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F6" s="54">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="G5" s="54">
+      <c r="G6" s="54">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="H5" s="55">
-        <v>0</v>
-      </c>
-      <c r="I5" s="55">
-        <v>0</v>
-      </c>
-      <c r="J5" s="55">
-        <v>0</v>
-      </c>
-      <c r="K5" s="55">
-        <v>0</v>
-      </c>
-      <c r="L5" s="55">
-        <v>0</v>
-      </c>
-      <c r="M5" s="55">
-        <v>0</v>
-      </c>
-      <c r="N5" s="55">
-        <v>0</v>
-      </c>
-      <c r="O5" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="52" t="s">
+      <c r="H6" s="55">
+        <v>0</v>
+      </c>
+      <c r="I6" s="55">
+        <v>0</v>
+      </c>
+      <c r="J6" s="55">
+        <v>0</v>
+      </c>
+      <c r="K6" s="55">
+        <v>0</v>
+      </c>
+      <c r="L6" s="55">
+        <v>0</v>
+      </c>
+      <c r="M6" s="55">
+        <v>0</v>
+      </c>
+      <c r="N6" s="55">
+        <v>0</v>
+      </c>
+      <c r="O6" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="54">
-        <v>1</v>
-      </c>
-      <c r="D6" s="54">
-        <v>1</v>
-      </c>
-      <c r="E6" s="54">
-        <v>1</v>
-      </c>
-      <c r="F6" s="54">
-        <v>1</v>
-      </c>
-      <c r="G6" s="54">
-        <v>1</v>
-      </c>
-      <c r="H6" s="55">
-        <v>0</v>
-      </c>
-      <c r="I6" s="55">
-        <v>0</v>
-      </c>
-      <c r="J6" s="55">
-        <v>0</v>
-      </c>
-      <c r="K6" s="55">
-        <v>0</v>
-      </c>
-      <c r="L6" s="55">
-        <v>0</v>
-      </c>
-      <c r="M6" s="55">
-        <v>0</v>
-      </c>
-      <c r="N6" s="55">
-        <v>0</v>
-      </c>
-      <c r="O6" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="14" t="s">
+      <c r="C7" s="54">
+        <v>1</v>
+      </c>
+      <c r="D7" s="54">
+        <v>1</v>
+      </c>
+      <c r="E7" s="54">
+        <v>1</v>
+      </c>
+      <c r="F7" s="54">
+        <v>1</v>
+      </c>
+      <c r="G7" s="54">
+        <v>1</v>
+      </c>
+      <c r="H7" s="55">
+        <v>0</v>
+      </c>
+      <c r="I7" s="55">
+        <v>0</v>
+      </c>
+      <c r="J7" s="55">
+        <v>0</v>
+      </c>
+      <c r="K7" s="55">
+        <v>0</v>
+      </c>
+      <c r="L7" s="55">
+        <v>0</v>
+      </c>
+      <c r="M7" s="55">
+        <v>0</v>
+      </c>
+      <c r="N7" s="55">
+        <v>0</v>
+      </c>
+      <c r="O7" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="54">
-        <v>0</v>
-      </c>
-      <c r="D7" s="54">
-        <v>0</v>
-      </c>
-      <c r="E7" s="54">
+      <c r="C8" s="54">
+        <v>0</v>
+      </c>
+      <c r="D8" s="54">
+        <v>0</v>
+      </c>
+      <c r="E8" s="54">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="F7" s="54">
+      <c r="F8" s="54">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="G7" s="54">
-        <v>0</v>
-      </c>
-      <c r="H7" s="55">
-        <v>0</v>
-      </c>
-      <c r="I7" s="55">
-        <v>0</v>
-      </c>
-      <c r="J7" s="55">
-        <v>0</v>
-      </c>
-      <c r="K7" s="55">
-        <v>0</v>
-      </c>
-      <c r="L7" s="55">
-        <v>0</v>
-      </c>
-      <c r="M7" s="55">
-        <v>0</v>
-      </c>
-      <c r="N7" s="55">
-        <v>0</v>
-      </c>
-      <c r="O7" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="14" t="s">
+      <c r="G8" s="54">
+        <v>0</v>
+      </c>
+      <c r="H8" s="55">
+        <v>0</v>
+      </c>
+      <c r="I8" s="55">
+        <v>0</v>
+      </c>
+      <c r="J8" s="55">
+        <v>0</v>
+      </c>
+      <c r="K8" s="55">
+        <v>0</v>
+      </c>
+      <c r="L8" s="55">
+        <v>0</v>
+      </c>
+      <c r="M8" s="55">
+        <v>0</v>
+      </c>
+      <c r="N8" s="55">
+        <v>0</v>
+      </c>
+      <c r="O8" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="54">
-        <v>0</v>
-      </c>
-      <c r="D8" s="54">
+      <c r="C9" s="54">
+        <v>0</v>
+      </c>
+      <c r="D9" s="54">
         <f>IF(ISBLANK(comm_deliv), frac_children_health_facility,1)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="54">
+      <c r="E9" s="54">
         <f>IF(ISBLANK(comm_deliv), frac_children_health_facility,1)</f>
         <v>0</v>
       </c>
-      <c r="F8" s="54">
+      <c r="F9" s="54">
         <f>IF(ISBLANK(comm_deliv), frac_children_health_facility,1)</f>
         <v>0</v>
       </c>
-      <c r="G8" s="54">
+      <c r="G9" s="54">
         <f>IF(ISBLANK(comm_deliv), frac_children_health_facility,1)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="55">
-        <v>0</v>
-      </c>
-      <c r="I8" s="55">
-        <v>0</v>
-      </c>
-      <c r="J8" s="55">
-        <v>0</v>
-      </c>
-      <c r="K8" s="55">
-        <v>0</v>
-      </c>
-      <c r="L8" s="55">
-        <v>0</v>
-      </c>
-      <c r="M8" s="55">
-        <v>0</v>
-      </c>
-      <c r="N8" s="55">
-        <v>0</v>
-      </c>
-      <c r="O8" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="14" t="s">
+      <c r="H9" s="55">
+        <v>0</v>
+      </c>
+      <c r="I9" s="55">
+        <v>0</v>
+      </c>
+      <c r="J9" s="55">
+        <v>0</v>
+      </c>
+      <c r="K9" s="55">
+        <v>0</v>
+      </c>
+      <c r="L9" s="55">
+        <v>0</v>
+      </c>
+      <c r="M9" s="55">
+        <v>0</v>
+      </c>
+      <c r="N9" s="55">
+        <v>0</v>
+      </c>
+      <c r="O9" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="54">
-        <v>0</v>
-      </c>
-      <c r="D9" s="54">
-        <v>0</v>
-      </c>
-      <c r="E9" s="54">
-        <v>1</v>
-      </c>
-      <c r="F9" s="54">
-        <v>1</v>
-      </c>
-      <c r="G9" s="54">
-        <v>1</v>
-      </c>
-      <c r="H9" s="55">
-        <v>0</v>
-      </c>
-      <c r="I9" s="55">
-        <v>0</v>
-      </c>
-      <c r="J9" s="55">
-        <v>0</v>
-      </c>
-      <c r="K9" s="55">
-        <v>0</v>
-      </c>
-      <c r="L9" s="55">
-        <v>0</v>
-      </c>
-      <c r="M9" s="55">
-        <v>0</v>
-      </c>
-      <c r="N9" s="55">
-        <v>0</v>
-      </c>
-      <c r="O9" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="52" t="s">
+      <c r="C10" s="54">
+        <v>0</v>
+      </c>
+      <c r="D10" s="54">
+        <v>0</v>
+      </c>
+      <c r="E10" s="54">
+        <v>1</v>
+      </c>
+      <c r="F10" s="54">
+        <v>1</v>
+      </c>
+      <c r="G10" s="54">
+        <v>1</v>
+      </c>
+      <c r="H10" s="55">
+        <v>0</v>
+      </c>
+      <c r="I10" s="55">
+        <v>0</v>
+      </c>
+      <c r="J10" s="55">
+        <v>0</v>
+      </c>
+      <c r="K10" s="55">
+        <v>0</v>
+      </c>
+      <c r="L10" s="55">
+        <v>0</v>
+      </c>
+      <c r="M10" s="55">
+        <v>0</v>
+      </c>
+      <c r="N10" s="55">
+        <v>0</v>
+      </c>
+      <c r="O10" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="54">
-        <v>1</v>
-      </c>
-      <c r="D10" s="54">
-        <v>1</v>
-      </c>
-      <c r="E10" s="54">
-        <v>1</v>
-      </c>
-      <c r="F10" s="54">
-        <v>1</v>
-      </c>
-      <c r="G10" s="54">
-        <v>1</v>
-      </c>
-      <c r="H10" s="55">
-        <v>0</v>
-      </c>
-      <c r="I10" s="55">
-        <v>0</v>
-      </c>
-      <c r="J10" s="55">
-        <v>0</v>
-      </c>
-      <c r="K10" s="55">
-        <v>0</v>
-      </c>
-      <c r="L10" s="55">
-        <v>0</v>
-      </c>
-      <c r="M10" s="55">
-        <v>0</v>
-      </c>
-      <c r="N10" s="55">
-        <v>0</v>
-      </c>
-      <c r="O10" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="14" t="s">
+      <c r="C11" s="54">
+        <v>1</v>
+      </c>
+      <c r="D11" s="54">
+        <v>1</v>
+      </c>
+      <c r="E11" s="54">
+        <v>1</v>
+      </c>
+      <c r="F11" s="54">
+        <v>1</v>
+      </c>
+      <c r="G11" s="54">
+        <v>1</v>
+      </c>
+      <c r="H11" s="55">
+        <v>0</v>
+      </c>
+      <c r="I11" s="55">
+        <v>0</v>
+      </c>
+      <c r="J11" s="55">
+        <v>0</v>
+      </c>
+      <c r="K11" s="55">
+        <v>0</v>
+      </c>
+      <c r="L11" s="55">
+        <v>0</v>
+      </c>
+      <c r="M11" s="55">
+        <v>0</v>
+      </c>
+      <c r="N11" s="55">
+        <v>0</v>
+      </c>
+      <c r="O11" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="54">
-        <v>0</v>
-      </c>
-      <c r="D11" s="54">
-        <v>0</v>
-      </c>
-      <c r="E11" s="54">
-        <v>1</v>
-      </c>
-      <c r="F11" s="54">
-        <v>1</v>
-      </c>
-      <c r="G11" s="54">
-        <v>1</v>
-      </c>
-      <c r="H11" s="55">
-        <v>0</v>
-      </c>
-      <c r="I11" s="55">
-        <v>0</v>
-      </c>
-      <c r="J11" s="55">
-        <v>0</v>
-      </c>
-      <c r="K11" s="55">
-        <v>0</v>
-      </c>
-      <c r="L11" s="55">
-        <v>0</v>
-      </c>
-      <c r="M11" s="55">
-        <v>0</v>
-      </c>
-      <c r="N11" s="55">
-        <v>0</v>
-      </c>
-      <c r="O11" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="52"/>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="C12" s="54">
+        <v>0</v>
+      </c>
+      <c r="D12" s="54">
+        <v>0</v>
+      </c>
+      <c r="E12" s="54">
+        <v>1</v>
+      </c>
+      <c r="F12" s="54">
+        <v>1</v>
+      </c>
+      <c r="G12" s="54">
+        <v>1</v>
+      </c>
+      <c r="H12" s="55">
+        <v>0</v>
+      </c>
+      <c r="I12" s="55">
+        <v>0</v>
+      </c>
+      <c r="J12" s="55">
+        <v>0</v>
+      </c>
+      <c r="K12" s="55">
+        <v>0</v>
+      </c>
+      <c r="L12" s="55">
+        <v>0</v>
+      </c>
+      <c r="M12" s="55">
+        <v>0</v>
+      </c>
+      <c r="N12" s="55">
+        <v>0</v>
+      </c>
+      <c r="O12" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="52"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B14" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="55">
-        <v>0</v>
-      </c>
-      <c r="D13" s="55">
-        <v>0</v>
-      </c>
-      <c r="E13" s="55">
-        <v>0</v>
-      </c>
-      <c r="F13" s="55">
-        <v>0</v>
-      </c>
-      <c r="G13" s="55">
-        <v>0</v>
-      </c>
-      <c r="H13" s="54">
+      <c r="C14" s="55">
+        <v>0</v>
+      </c>
+      <c r="D14" s="55">
+        <v>0</v>
+      </c>
+      <c r="E14" s="55">
+        <v>0</v>
+      </c>
+      <c r="F14" s="55">
+        <v>0</v>
+      </c>
+      <c r="G14" s="55">
+        <v>0</v>
+      </c>
+      <c r="H14" s="54">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="I13" s="54">
+      <c r="I14" s="54">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="J13" s="54">
+      <c r="J14" s="54">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="K13" s="54">
+      <c r="K14" s="54">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="L13" s="55">
-        <v>0</v>
-      </c>
-      <c r="M13" s="55">
-        <v>0</v>
-      </c>
-      <c r="N13" s="55">
-        <v>0</v>
-      </c>
-      <c r="O13" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="55">
-        <v>0</v>
-      </c>
-      <c r="D14" s="55">
-        <v>0</v>
-      </c>
-      <c r="E14" s="55">
-        <v>0</v>
-      </c>
-      <c r="F14" s="55">
-        <v>0</v>
-      </c>
-      <c r="G14" s="55">
-        <v>0</v>
-      </c>
-      <c r="H14" s="54">
-        <v>1</v>
-      </c>
-      <c r="I14" s="54">
-        <v>1</v>
-      </c>
-      <c r="J14" s="54">
-        <v>1</v>
-      </c>
-      <c r="K14" s="54">
-        <v>1</v>
-      </c>
       <c r="L14" s="55">
         <v>0</v>
       </c>
@@ -6166,10 +6188,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="14" t="s">
-        <v>206</v>
+        <v>97</v>
       </c>
       <c r="C15" s="55">
         <v>0</v>
@@ -6187,19 +6209,15 @@
         <v>0</v>
       </c>
       <c r="H15" s="54">
-        <f xml:space="preserve"> 1</f>
         <v>1</v>
       </c>
       <c r="I15" s="54">
-        <f xml:space="preserve"> 1</f>
         <v>1</v>
       </c>
       <c r="J15" s="54">
-        <f xml:space="preserve"> 1</f>
         <v>1</v>
       </c>
       <c r="K15" s="54">
-        <f xml:space="preserve"> 1</f>
         <v>1</v>
       </c>
       <c r="L15" s="55">
@@ -6215,984 +6233,1033 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="C16" s="55">
+        <v>0</v>
+      </c>
+      <c r="D16" s="55">
+        <v>0</v>
+      </c>
+      <c r="E16" s="55">
+        <v>0</v>
+      </c>
+      <c r="F16" s="55">
+        <v>0</v>
+      </c>
+      <c r="G16" s="55">
+        <v>0</v>
+      </c>
+      <c r="H16" s="54">
+        <f xml:space="preserve"> 1</f>
+        <v>1</v>
+      </c>
+      <c r="I16" s="54">
+        <f xml:space="preserve"> 1</f>
+        <v>1</v>
+      </c>
+      <c r="J16" s="54">
+        <f xml:space="preserve"> 1</f>
+        <v>1</v>
+      </c>
+      <c r="K16" s="54">
+        <f xml:space="preserve"> 1</f>
+        <v>1</v>
+      </c>
+      <c r="L16" s="55">
+        <v>0</v>
+      </c>
+      <c r="M16" s="55">
+        <v>0</v>
+      </c>
+      <c r="N16" s="55">
+        <v>0</v>
+      </c>
+      <c r="O16" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="4"/>
+      <c r="B17" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="C16" s="55">
-        <v>0</v>
-      </c>
-      <c r="D16" s="55">
-        <v>0</v>
-      </c>
-      <c r="E16" s="55">
-        <v>0</v>
-      </c>
-      <c r="F16" s="55">
-        <v>0</v>
-      </c>
-      <c r="G16" s="55">
-        <v>0</v>
-      </c>
-      <c r="H16" s="54">
+      <c r="C17" s="55">
+        <v>0</v>
+      </c>
+      <c r="D17" s="55">
+        <v>0</v>
+      </c>
+      <c r="E17" s="55">
+        <v>0</v>
+      </c>
+      <c r="F17" s="55">
+        <v>0</v>
+      </c>
+      <c r="G17" s="55">
+        <v>0</v>
+      </c>
+      <c r="H17" s="54">
         <f>frac_PW_health_facility</f>
         <v>0</v>
       </c>
-      <c r="I16" s="54">
+      <c r="I17" s="54">
         <f>frac_PW_health_facility</f>
         <v>0</v>
       </c>
-      <c r="J16" s="54">
+      <c r="J17" s="54">
         <f>frac_PW_health_facility</f>
         <v>0</v>
       </c>
-      <c r="K16" s="54">
+      <c r="K17" s="54">
         <f>frac_PW_health_facility</f>
         <v>0</v>
       </c>
-      <c r="L16" s="55">
-        <v>0</v>
-      </c>
-      <c r="M16" s="55">
-        <v>0</v>
-      </c>
-      <c r="N16" s="55">
-        <v>0</v>
-      </c>
-      <c r="O16" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="52" t="s">
+      <c r="L17" s="55">
+        <v>0</v>
+      </c>
+      <c r="M17" s="55">
+        <v>0</v>
+      </c>
+      <c r="N17" s="55">
+        <v>0</v>
+      </c>
+      <c r="O17" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="55">
-        <v>0</v>
-      </c>
-      <c r="D17" s="55">
-        <v>0</v>
-      </c>
-      <c r="E17" s="55">
-        <v>0</v>
-      </c>
-      <c r="F17" s="55">
-        <v>0</v>
-      </c>
-      <c r="G17" s="55">
-        <v>0</v>
-      </c>
-      <c r="H17" s="54">
+      <c r="C18" s="55">
+        <v>0</v>
+      </c>
+      <c r="D18" s="55">
+        <v>0</v>
+      </c>
+      <c r="E18" s="55">
+        <v>0</v>
+      </c>
+      <c r="F18" s="55">
+        <v>0</v>
+      </c>
+      <c r="G18" s="55">
+        <v>0</v>
+      </c>
+      <c r="H18" s="54">
         <f>frac_malaria_risk</f>
         <v>0</v>
       </c>
-      <c r="I17" s="54">
+      <c r="I18" s="54">
         <f>frac_malaria_risk</f>
         <v>0</v>
       </c>
-      <c r="J17" s="54">
+      <c r="J18" s="54">
         <f>frac_malaria_risk</f>
         <v>0</v>
       </c>
-      <c r="K17" s="54">
+      <c r="K18" s="54">
         <f>frac_malaria_risk</f>
         <v>0</v>
       </c>
-      <c r="L17" s="55">
-        <v>0</v>
-      </c>
-      <c r="M17" s="55">
-        <v>0</v>
-      </c>
-      <c r="N17" s="55">
-        <v>0</v>
-      </c>
-      <c r="O17" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="14" t="s">
+      <c r="L18" s="55">
+        <v>0</v>
+      </c>
+      <c r="M18" s="55">
+        <v>0</v>
+      </c>
+      <c r="N18" s="55">
+        <v>0</v>
+      </c>
+      <c r="O18" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="55">
-        <v>0</v>
-      </c>
-      <c r="D18" s="55">
-        <v>0</v>
-      </c>
-      <c r="E18" s="55">
-        <v>0</v>
-      </c>
-      <c r="F18" s="55">
-        <v>0</v>
-      </c>
-      <c r="G18" s="55">
-        <v>0</v>
-      </c>
-      <c r="H18" s="54">
-        <v>1</v>
-      </c>
-      <c r="I18" s="54">
-        <v>1</v>
-      </c>
-      <c r="J18" s="54">
-        <v>1</v>
-      </c>
-      <c r="K18" s="54">
-        <v>1</v>
-      </c>
-      <c r="L18" s="55">
-        <v>0</v>
-      </c>
-      <c r="M18" s="55">
-        <v>0</v>
-      </c>
-      <c r="N18" s="55">
-        <v>0</v>
-      </c>
-      <c r="O18" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="14" t="s">
+      <c r="C19" s="55">
+        <v>0</v>
+      </c>
+      <c r="D19" s="55">
+        <v>0</v>
+      </c>
+      <c r="E19" s="55">
+        <v>0</v>
+      </c>
+      <c r="F19" s="55">
+        <v>0</v>
+      </c>
+      <c r="G19" s="55">
+        <v>0</v>
+      </c>
+      <c r="H19" s="54">
+        <v>1</v>
+      </c>
+      <c r="I19" s="54">
+        <v>1</v>
+      </c>
+      <c r="J19" s="54">
+        <v>1</v>
+      </c>
+      <c r="K19" s="54">
+        <v>1</v>
+      </c>
+      <c r="L19" s="55">
+        <v>0</v>
+      </c>
+      <c r="M19" s="55">
+        <v>0</v>
+      </c>
+      <c r="N19" s="55">
+        <v>0</v>
+      </c>
+      <c r="O19" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="55">
-        <v>0</v>
-      </c>
-      <c r="D19" s="55">
-        <v>0</v>
-      </c>
-      <c r="E19" s="55">
-        <v>0</v>
-      </c>
-      <c r="F19" s="55">
-        <v>0</v>
-      </c>
-      <c r="G19" s="55">
-        <v>0</v>
-      </c>
-      <c r="H19" s="54">
-        <v>1</v>
-      </c>
-      <c r="I19" s="54">
-        <v>1</v>
-      </c>
-      <c r="J19" s="54">
-        <v>1</v>
-      </c>
-      <c r="K19" s="54">
-        <v>1</v>
-      </c>
-      <c r="L19" s="55">
-        <v>0</v>
-      </c>
-      <c r="M19" s="55">
-        <v>0</v>
-      </c>
-      <c r="N19" s="55">
-        <v>0</v>
-      </c>
-      <c r="O19" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="52" t="s">
+      <c r="C20" s="55">
+        <v>0</v>
+      </c>
+      <c r="D20" s="55">
+        <v>0</v>
+      </c>
+      <c r="E20" s="55">
+        <v>0</v>
+      </c>
+      <c r="F20" s="55">
+        <v>0</v>
+      </c>
+      <c r="G20" s="55">
+        <v>0</v>
+      </c>
+      <c r="H20" s="54">
+        <v>1</v>
+      </c>
+      <c r="I20" s="54">
+        <v>1</v>
+      </c>
+      <c r="J20" s="54">
+        <v>1</v>
+      </c>
+      <c r="K20" s="54">
+        <v>1</v>
+      </c>
+      <c r="L20" s="55">
+        <v>0</v>
+      </c>
+      <c r="M20" s="55">
+        <v>0</v>
+      </c>
+      <c r="N20" s="55">
+        <v>0</v>
+      </c>
+      <c r="O20" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="55">
-        <v>0</v>
-      </c>
-      <c r="D20" s="55">
-        <v>0</v>
-      </c>
-      <c r="E20" s="55">
-        <v>0</v>
-      </c>
-      <c r="F20" s="55">
-        <v>0</v>
-      </c>
-      <c r="G20" s="55">
-        <v>0</v>
-      </c>
-      <c r="H20" s="54">
+      <c r="C21" s="55">
+        <v>0</v>
+      </c>
+      <c r="D21" s="55">
+        <v>0</v>
+      </c>
+      <c r="E21" s="55">
+        <v>0</v>
+      </c>
+      <c r="F21" s="55">
+        <v>0</v>
+      </c>
+      <c r="G21" s="55">
+        <v>0</v>
+      </c>
+      <c r="H21" s="54">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="I20" s="54">
+      <c r="I21" s="54">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="J20" s="54">
+      <c r="J21" s="54">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="K20" s="54">
+      <c r="K21" s="54">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="L20" s="55">
-        <v>0</v>
-      </c>
-      <c r="M20" s="55">
-        <v>0</v>
-      </c>
-      <c r="N20" s="55">
-        <v>0</v>
-      </c>
-      <c r="O20" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="52"/>
-    </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="96" t="s">
+      <c r="L21" s="55">
+        <v>0</v>
+      </c>
+      <c r="M21" s="55">
+        <v>0</v>
+      </c>
+      <c r="N21" s="55">
+        <v>0</v>
+      </c>
+      <c r="O21" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="52"/>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="98" t="s">
+      <c r="B23" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="55">
-        <v>0</v>
-      </c>
-      <c r="D22" s="55">
-        <v>0</v>
-      </c>
-      <c r="E22" s="55">
-        <v>0</v>
-      </c>
-      <c r="F22" s="55">
-        <v>0</v>
-      </c>
-      <c r="G22" s="55">
-        <v>0</v>
-      </c>
-      <c r="H22" s="55">
-        <v>0</v>
-      </c>
-      <c r="I22" s="55">
-        <v>0</v>
-      </c>
-      <c r="J22" s="55">
-        <v>0</v>
-      </c>
-      <c r="K22" s="55">
-        <v>0</v>
-      </c>
-      <c r="L22" s="54">
-        <v>1</v>
-      </c>
-      <c r="M22" s="54">
-        <v>1</v>
-      </c>
-      <c r="N22" s="54">
-        <v>1</v>
-      </c>
-      <c r="O22" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="98" t="s">
+      <c r="C23" s="55">
+        <v>0</v>
+      </c>
+      <c r="D23" s="55">
+        <v>0</v>
+      </c>
+      <c r="E23" s="55">
+        <v>0</v>
+      </c>
+      <c r="F23" s="55">
+        <v>0</v>
+      </c>
+      <c r="G23" s="55">
+        <v>0</v>
+      </c>
+      <c r="H23" s="55">
+        <v>0</v>
+      </c>
+      <c r="I23" s="55">
+        <v>0</v>
+      </c>
+      <c r="J23" s="55">
+        <v>0</v>
+      </c>
+      <c r="K23" s="55">
+        <v>0</v>
+      </c>
+      <c r="L23" s="54">
+        <v>1</v>
+      </c>
+      <c r="M23" s="54">
+        <v>1</v>
+      </c>
+      <c r="N23" s="54">
+        <v>1</v>
+      </c>
+      <c r="O23" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="98" t="s">
         <v>207</v>
       </c>
-      <c r="C23" s="55">
-        <v>0</v>
-      </c>
-      <c r="D23" s="55">
-        <v>0</v>
-      </c>
-      <c r="E23" s="55">
-        <v>0</v>
-      </c>
-      <c r="F23" s="55">
-        <v>0</v>
-      </c>
-      <c r="G23" s="55">
-        <v>0</v>
-      </c>
-      <c r="H23" s="55">
-        <v>0</v>
-      </c>
-      <c r="I23" s="55">
-        <v>0</v>
-      </c>
-      <c r="J23" s="55">
-        <v>0</v>
-      </c>
-      <c r="K23" s="55">
-        <v>0</v>
-      </c>
-      <c r="L23" s="54">
+      <c r="C24" s="55">
+        <v>0</v>
+      </c>
+      <c r="D24" s="55">
+        <v>0</v>
+      </c>
+      <c r="E24" s="55">
+        <v>0</v>
+      </c>
+      <c r="F24" s="55">
+        <v>0</v>
+      </c>
+      <c r="G24" s="55">
+        <v>0</v>
+      </c>
+      <c r="H24" s="55">
+        <v>0</v>
+      </c>
+      <c r="I24" s="55">
+        <v>0</v>
+      </c>
+      <c r="J24" s="55">
+        <v>0</v>
+      </c>
+      <c r="K24" s="55">
+        <v>0</v>
+      </c>
+      <c r="L24" s="54">
         <f>(1-food_insecure)*(0.49)*(1-school_attendance) + food_insecure*(0.7)*(1-school_attendance)</f>
         <v>0.49</v>
       </c>
-      <c r="M23" s="54">
+      <c r="M24" s="54">
         <f>(1-food_insecure)*(0.49)+food_insecure*(0.7)</f>
         <v>0.49</v>
       </c>
-      <c r="N23" s="54">
+      <c r="N24" s="54">
         <f>(1-food_insecure)*(0.49)+food_insecure*(0.7)</f>
         <v>0.49</v>
       </c>
-      <c r="O23" s="54">
+      <c r="O24" s="54">
         <f>(1-food_insecure)*(0.49)+food_insecure*(0.7)</f>
         <v>0.49</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="98" t="s">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="98" t="s">
         <v>208</v>
       </c>
-      <c r="C24" s="55">
-        <v>0</v>
-      </c>
-      <c r="D24" s="55">
-        <v>0</v>
-      </c>
-      <c r="E24" s="55">
-        <v>0</v>
-      </c>
-      <c r="F24" s="55">
-        <v>0</v>
-      </c>
-      <c r="G24" s="55">
-        <v>0</v>
-      </c>
-      <c r="H24" s="55">
-        <v>0</v>
-      </c>
-      <c r="I24" s="55">
-        <v>0</v>
-      </c>
-      <c r="J24" s="55">
-        <v>0</v>
-      </c>
-      <c r="K24" s="55">
-        <v>0</v>
-      </c>
-      <c r="L24" s="54">
+      <c r="C25" s="55">
+        <v>0</v>
+      </c>
+      <c r="D25" s="55">
+        <v>0</v>
+      </c>
+      <c r="E25" s="55">
+        <v>0</v>
+      </c>
+      <c r="F25" s="55">
+        <v>0</v>
+      </c>
+      <c r="G25" s="55">
+        <v>0</v>
+      </c>
+      <c r="H25" s="55">
+        <v>0</v>
+      </c>
+      <c r="I25" s="55">
+        <v>0</v>
+      </c>
+      <c r="J25" s="55">
+        <v>0</v>
+      </c>
+      <c r="K25" s="55">
+        <v>0</v>
+      </c>
+      <c r="L25" s="54">
         <f>(1-food_insecure)*(0.21)*(1-school_attendance) + food_insecure*(0.3)*(1-school_attendance)</f>
         <v>0.21</v>
       </c>
-      <c r="M24" s="54">
+      <c r="M25" s="54">
         <f>(1-food_insecure)*(0.21)+food_insecure*(0.3)</f>
         <v>0.21</v>
       </c>
-      <c r="N24" s="54">
+      <c r="N25" s="54">
         <f>(1-food_insecure)*(0.21)+food_insecure*(0.3)</f>
         <v>0.21</v>
       </c>
-      <c r="O24" s="54">
+      <c r="O25" s="54">
         <f>(1-food_insecure)*(0.21)+food_insecure*(0.3)</f>
         <v>0.21</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="98" t="s">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="98" t="s">
         <v>209</v>
       </c>
-      <c r="C25" s="55">
-        <v>0</v>
-      </c>
-      <c r="D25" s="55">
-        <v>0</v>
-      </c>
-      <c r="E25" s="55">
-        <v>0</v>
-      </c>
-      <c r="F25" s="55">
-        <v>0</v>
-      </c>
-      <c r="G25" s="55">
-        <v>0</v>
-      </c>
-      <c r="H25" s="55">
-        <v>0</v>
-      </c>
-      <c r="I25" s="55">
-        <v>0</v>
-      </c>
-      <c r="J25" s="55">
-        <v>0</v>
-      </c>
-      <c r="K25" s="55">
-        <v>0</v>
-      </c>
-      <c r="L25" s="54">
+      <c r="C26" s="55">
+        <v>0</v>
+      </c>
+      <c r="D26" s="55">
+        <v>0</v>
+      </c>
+      <c r="E26" s="55">
+        <v>0</v>
+      </c>
+      <c r="F26" s="55">
+        <v>0</v>
+      </c>
+      <c r="G26" s="55">
+        <v>0</v>
+      </c>
+      <c r="H26" s="55">
+        <v>0</v>
+      </c>
+      <c r="I26" s="55">
+        <v>0</v>
+      </c>
+      <c r="J26" s="55">
+        <v>0</v>
+      </c>
+      <c r="K26" s="55">
+        <v>0</v>
+      </c>
+      <c r="L26" s="54">
         <f>(1-food_insecure)*(0.3)*(1-school_attendance)</f>
         <v>0.3</v>
       </c>
-      <c r="M25" s="54">
+      <c r="M26" s="54">
         <f>(1-food_insecure)*(0.3)</f>
         <v>0.3</v>
       </c>
-      <c r="N25" s="54">
+      <c r="N26" s="54">
         <f>(1-food_insecure)*(0.3)</f>
         <v>0.3</v>
       </c>
-      <c r="O25" s="54">
+      <c r="O26" s="54">
         <f>(1-food_insecure)*(0.3)</f>
         <v>0.3</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="98" t="s">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="98" t="s">
         <v>210</v>
       </c>
-      <c r="C26" s="55">
-        <v>0</v>
-      </c>
-      <c r="D26" s="55">
-        <v>0</v>
-      </c>
-      <c r="E26" s="55">
-        <v>0</v>
-      </c>
-      <c r="F26" s="55">
-        <v>0</v>
-      </c>
-      <c r="G26" s="55">
-        <v>0</v>
-      </c>
-      <c r="H26" s="55">
-        <v>0</v>
-      </c>
-      <c r="I26" s="55">
-        <v>0</v>
-      </c>
-      <c r="J26" s="55">
-        <v>0</v>
-      </c>
-      <c r="K26" s="55">
-        <v>0</v>
-      </c>
-      <c r="L26" s="54">
+      <c r="C27" s="55">
+        <v>0</v>
+      </c>
+      <c r="D27" s="55">
+        <v>0</v>
+      </c>
+      <c r="E27" s="55">
+        <v>0</v>
+      </c>
+      <c r="F27" s="55">
+        <v>0</v>
+      </c>
+      <c r="G27" s="55">
+        <v>0</v>
+      </c>
+      <c r="H27" s="55">
+        <v>0</v>
+      </c>
+      <c r="I27" s="55">
+        <v>0</v>
+      </c>
+      <c r="J27" s="55">
+        <v>0</v>
+      </c>
+      <c r="K27" s="55">
+        <v>0</v>
+      </c>
+      <c r="L27" s="54">
         <f>(1-food_insecure)*1*school_attendance + food_insecure*1*school_attendance</f>
         <v>0</v>
       </c>
-      <c r="M26" s="54">
-        <v>0</v>
-      </c>
-      <c r="N26" s="54">
-        <v>0</v>
-      </c>
-      <c r="O26" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="14"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-    </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="M27" s="54">
+        <v>0</v>
+      </c>
+      <c r="N27" s="54">
+        <v>0</v>
+      </c>
+      <c r="O27" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="14"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B29" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="54">
-        <v>0</v>
-      </c>
-      <c r="D28" s="54">
-        <v>0</v>
-      </c>
-      <c r="E28" s="54">
-        <f t="shared" ref="E28:O28" si="0">frac_maize</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="54">
+      <c r="C29" s="54">
+        <v>0</v>
+      </c>
+      <c r="D29" s="54">
+        <v>0</v>
+      </c>
+      <c r="E29" s="54">
+        <f t="shared" ref="E29:O29" si="0">frac_maize</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G28" s="54">
+      <c r="G29" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H28" s="54">
+      <c r="H29" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I28" s="54">
+      <c r="I29" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J28" s="54">
+      <c r="J29" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K28" s="54">
+      <c r="K29" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L28" s="54">
+      <c r="L29" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M28" s="54">
+      <c r="M29" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N28" s="54">
+      <c r="N29" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O28" s="54">
+      <c r="O29" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="14" t="s">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="54">
-        <v>0</v>
-      </c>
-      <c r="D29" s="54">
-        <v>0</v>
-      </c>
-      <c r="E29" s="54">
-        <f t="shared" ref="E29:O29" si="1">frac_rice</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="54">
+      <c r="C30" s="54">
+        <v>0</v>
+      </c>
+      <c r="D30" s="54">
+        <v>0</v>
+      </c>
+      <c r="E30" s="54">
+        <f t="shared" ref="E30:O30" si="1">frac_rice</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G29" s="54">
+      <c r="G30" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H29" s="54">
+      <c r="H30" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I29" s="54">
+      <c r="I30" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J29" s="54">
+      <c r="J30" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K29" s="54">
+      <c r="K30" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L29" s="54">
+      <c r="L30" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M29" s="54">
+      <c r="M30" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N29" s="54">
+      <c r="N30" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O29" s="54">
+      <c r="O30" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="14" t="s">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="54">
-        <v>0</v>
-      </c>
-      <c r="D30" s="54">
-        <v>0</v>
-      </c>
-      <c r="E30" s="54">
-        <f t="shared" ref="E30:O30" si="2">frac_wheat</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="54">
+      <c r="C31" s="54">
+        <v>0</v>
+      </c>
+      <c r="D31" s="54">
+        <v>0</v>
+      </c>
+      <c r="E31" s="54">
+        <f t="shared" ref="E31:O31" si="2">frac_wheat</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G30" s="54">
+      <c r="G31" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H30" s="54">
+      <c r="H31" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I30" s="54">
+      <c r="I31" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J30" s="54">
+      <c r="J31" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K30" s="54">
+      <c r="K31" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L30" s="54">
+      <c r="L31" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M30" s="54">
+      <c r="M31" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N30" s="54">
+      <c r="N31" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O30" s="54">
+      <c r="O31" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="14" t="s">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="54">
-        <v>0</v>
-      </c>
-      <c r="D31" s="54">
-        <v>0</v>
-      </c>
-      <c r="E31" s="54">
-        <v>1</v>
-      </c>
-      <c r="F31" s="54">
-        <v>1</v>
-      </c>
-      <c r="G31" s="54">
-        <v>1</v>
-      </c>
-      <c r="H31" s="54">
-        <v>1</v>
-      </c>
-      <c r="I31" s="54">
-        <v>1</v>
-      </c>
-      <c r="J31" s="54">
-        <v>1</v>
-      </c>
-      <c r="K31" s="54">
-        <v>1</v>
-      </c>
-      <c r="L31" s="54">
-        <v>1</v>
-      </c>
-      <c r="M31" s="54">
-        <v>1</v>
-      </c>
-      <c r="N31" s="54">
-        <v>1</v>
-      </c>
-      <c r="O31" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="14" t="s">
+      <c r="C32" s="54">
+        <v>0</v>
+      </c>
+      <c r="D32" s="54">
+        <v>0</v>
+      </c>
+      <c r="E32" s="54">
+        <v>1</v>
+      </c>
+      <c r="F32" s="54">
+        <v>1</v>
+      </c>
+      <c r="G32" s="54">
+        <v>1</v>
+      </c>
+      <c r="H32" s="54">
+        <v>1</v>
+      </c>
+      <c r="I32" s="54">
+        <v>1</v>
+      </c>
+      <c r="J32" s="54">
+        <v>1</v>
+      </c>
+      <c r="K32" s="54">
+        <v>1</v>
+      </c>
+      <c r="L32" s="54">
+        <v>1</v>
+      </c>
+      <c r="M32" s="54">
+        <v>1</v>
+      </c>
+      <c r="N32" s="54">
+        <v>1</v>
+      </c>
+      <c r="O32" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="54">
-        <f t="shared" ref="C32:O32" si="3">frac_malaria_risk</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="54">
+      <c r="C33" s="54">
+        <f t="shared" ref="C33:O33" si="3">frac_malaria_risk</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E32" s="54">
+      <c r="E33" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F32" s="54">
+      <c r="F33" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G32" s="54">
+      <c r="G33" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H32" s="54">
+      <c r="H33" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I32" s="54">
+      <c r="I33" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J32" s="54">
+      <c r="J33" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K32" s="54">
+      <c r="K33" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L32" s="54">
+      <c r="L33" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M32" s="54">
+      <c r="M33" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N32" s="54">
+      <c r="N33" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O32" s="54">
+      <c r="O33" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="52" t="s">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="54">
-        <v>1</v>
-      </c>
-      <c r="D33" s="54">
-        <v>1</v>
-      </c>
-      <c r="E33" s="54">
-        <v>1</v>
-      </c>
-      <c r="F33" s="54">
-        <v>1</v>
-      </c>
-      <c r="G33" s="54">
-        <v>1</v>
-      </c>
-      <c r="H33" s="54">
-        <v>1</v>
-      </c>
-      <c r="I33" s="54">
-        <v>1</v>
-      </c>
-      <c r="J33" s="54">
-        <v>1</v>
-      </c>
-      <c r="K33" s="54">
-        <v>1</v>
-      </c>
-      <c r="L33" s="54">
-        <v>1</v>
-      </c>
-      <c r="M33" s="54">
-        <v>1</v>
-      </c>
-      <c r="N33" s="54">
-        <v>1</v>
-      </c>
-      <c r="O33" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
-      <c r="B34" s="52" t="s">
+      <c r="C34" s="54">
+        <v>1</v>
+      </c>
+      <c r="D34" s="54">
+        <v>1</v>
+      </c>
+      <c r="E34" s="54">
+        <v>1</v>
+      </c>
+      <c r="F34" s="54">
+        <v>1</v>
+      </c>
+      <c r="G34" s="54">
+        <v>1</v>
+      </c>
+      <c r="H34" s="54">
+        <v>1</v>
+      </c>
+      <c r="I34" s="54">
+        <v>1</v>
+      </c>
+      <c r="J34" s="54">
+        <v>1</v>
+      </c>
+      <c r="K34" s="54">
+        <v>1</v>
+      </c>
+      <c r="L34" s="54">
+        <v>1</v>
+      </c>
+      <c r="M34" s="54">
+        <v>1</v>
+      </c>
+      <c r="N34" s="54">
+        <v>1</v>
+      </c>
+      <c r="O34" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="5"/>
+      <c r="B35" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="54">
-        <v>1</v>
-      </c>
-      <c r="D34" s="54">
-        <v>1</v>
-      </c>
-      <c r="E34" s="54">
-        <v>1</v>
-      </c>
-      <c r="F34" s="54">
-        <v>1</v>
-      </c>
-      <c r="G34" s="54">
-        <v>1</v>
-      </c>
-      <c r="H34" s="54">
-        <v>1</v>
-      </c>
-      <c r="I34" s="54">
-        <v>1</v>
-      </c>
-      <c r="J34" s="54">
-        <v>1</v>
-      </c>
-      <c r="K34" s="54">
-        <v>1</v>
-      </c>
-      <c r="L34" s="54">
-        <v>1</v>
-      </c>
-      <c r="M34" s="54">
-        <v>1</v>
-      </c>
-      <c r="N34" s="54">
-        <v>1</v>
-      </c>
-      <c r="O34" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="52" t="s">
+      <c r="C35" s="54">
+        <v>1</v>
+      </c>
+      <c r="D35" s="54">
+        <v>1</v>
+      </c>
+      <c r="E35" s="54">
+        <v>1</v>
+      </c>
+      <c r="F35" s="54">
+        <v>1</v>
+      </c>
+      <c r="G35" s="54">
+        <v>1</v>
+      </c>
+      <c r="H35" s="54">
+        <v>1</v>
+      </c>
+      <c r="I35" s="54">
+        <v>1</v>
+      </c>
+      <c r="J35" s="54">
+        <v>1</v>
+      </c>
+      <c r="K35" s="54">
+        <v>1</v>
+      </c>
+      <c r="L35" s="54">
+        <v>1</v>
+      </c>
+      <c r="M35" s="54">
+        <v>1</v>
+      </c>
+      <c r="N35" s="54">
+        <v>1</v>
+      </c>
+      <c r="O35" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="54">
-        <v>1</v>
-      </c>
-      <c r="D35" s="54">
-        <v>1</v>
-      </c>
-      <c r="E35" s="54">
-        <v>1</v>
-      </c>
-      <c r="F35" s="54">
-        <v>1</v>
-      </c>
-      <c r="G35" s="54">
-        <v>1</v>
-      </c>
-      <c r="H35" s="54">
-        <v>1</v>
-      </c>
-      <c r="I35" s="54">
-        <v>1</v>
-      </c>
-      <c r="J35" s="54">
-        <v>1</v>
-      </c>
-      <c r="K35" s="54">
-        <v>1</v>
-      </c>
-      <c r="L35" s="54">
-        <v>1</v>
-      </c>
-      <c r="M35" s="54">
-        <v>1</v>
-      </c>
-      <c r="N35" s="54">
-        <v>1</v>
-      </c>
-      <c r="O35" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="52" t="s">
+      <c r="C36" s="54">
+        <v>1</v>
+      </c>
+      <c r="D36" s="54">
+        <v>1</v>
+      </c>
+      <c r="E36" s="54">
+        <v>1</v>
+      </c>
+      <c r="F36" s="54">
+        <v>1</v>
+      </c>
+      <c r="G36" s="54">
+        <v>1</v>
+      </c>
+      <c r="H36" s="54">
+        <v>1</v>
+      </c>
+      <c r="I36" s="54">
+        <v>1</v>
+      </c>
+      <c r="J36" s="54">
+        <v>1</v>
+      </c>
+      <c r="K36" s="54">
+        <v>1</v>
+      </c>
+      <c r="L36" s="54">
+        <v>1</v>
+      </c>
+      <c r="M36" s="54">
+        <v>1</v>
+      </c>
+      <c r="N36" s="54">
+        <v>1</v>
+      </c>
+      <c r="O36" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="54">
-        <v>1</v>
-      </c>
-      <c r="D36" s="54">
-        <v>1</v>
-      </c>
-      <c r="E36" s="54">
-        <v>1</v>
-      </c>
-      <c r="F36" s="54">
-        <v>1</v>
-      </c>
-      <c r="G36" s="54">
-        <v>1</v>
-      </c>
-      <c r="H36" s="54">
-        <v>1</v>
-      </c>
-      <c r="I36" s="54">
-        <v>1</v>
-      </c>
-      <c r="J36" s="54">
-        <v>1</v>
-      </c>
-      <c r="K36" s="54">
-        <v>1</v>
-      </c>
-      <c r="L36" s="54">
-        <v>1</v>
-      </c>
-      <c r="M36" s="54">
-        <v>1</v>
-      </c>
-      <c r="N36" s="54">
-        <v>1</v>
-      </c>
-      <c r="O36" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="52" t="s">
+      <c r="C37" s="54">
+        <v>1</v>
+      </c>
+      <c r="D37" s="54">
+        <v>1</v>
+      </c>
+      <c r="E37" s="54">
+        <v>1</v>
+      </c>
+      <c r="F37" s="54">
+        <v>1</v>
+      </c>
+      <c r="G37" s="54">
+        <v>1</v>
+      </c>
+      <c r="H37" s="54">
+        <v>1</v>
+      </c>
+      <c r="I37" s="54">
+        <v>1</v>
+      </c>
+      <c r="J37" s="54">
+        <v>1</v>
+      </c>
+      <c r="K37" s="54">
+        <v>1</v>
+      </c>
+      <c r="L37" s="54">
+        <v>1</v>
+      </c>
+      <c r="M37" s="54">
+        <v>1</v>
+      </c>
+      <c r="N37" s="54">
+        <v>1</v>
+      </c>
+      <c r="O37" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="54">
-        <v>1</v>
-      </c>
-      <c r="D37" s="54">
-        <v>1</v>
-      </c>
-      <c r="E37" s="54">
-        <v>1</v>
-      </c>
-      <c r="F37" s="54">
-        <v>1</v>
-      </c>
-      <c r="G37" s="54">
-        <v>1</v>
-      </c>
-      <c r="H37" s="54">
-        <v>1</v>
-      </c>
-      <c r="I37" s="54">
-        <v>1</v>
-      </c>
-      <c r="J37" s="54">
-        <v>1</v>
-      </c>
-      <c r="K37" s="54">
-        <v>1</v>
-      </c>
-      <c r="L37" s="54">
-        <v>1</v>
-      </c>
-      <c r="M37" s="54">
-        <v>1</v>
-      </c>
-      <c r="N37" s="54">
-        <v>1</v>
-      </c>
-      <c r="O37" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="52"/>
+      <c r="C38" s="54">
+        <v>1</v>
+      </c>
+      <c r="D38" s="54">
+        <v>1</v>
+      </c>
+      <c r="E38" s="54">
+        <v>1</v>
+      </c>
+      <c r="F38" s="54">
+        <v>1</v>
+      </c>
+      <c r="G38" s="54">
+        <v>1</v>
+      </c>
+      <c r="H38" s="54">
+        <v>1</v>
+      </c>
+      <c r="I38" s="54">
+        <v>1</v>
+      </c>
+      <c r="J38" s="54">
+        <v>1</v>
+      </c>
+      <c r="K38" s="54">
+        <v>1</v>
+      </c>
+      <c r="L38" s="54">
+        <v>1</v>
+      </c>
+      <c r="M38" s="54">
+        <v>1</v>
+      </c>
+      <c r="N38" s="54">
+        <v>1</v>
+      </c>
+      <c r="O38" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="52"/>
     </row>
   </sheetData>
-  <sortState ref="B13:O20">
-    <sortCondition ref="B13:B20"/>
+  <sortState ref="B14:O21">
+    <sortCondition ref="B14:B21"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -7200,7 +7267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -7210,16 +7277,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" style="56" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="56" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" style="56"/>
-    <col min="5" max="5" width="17.42578125" style="56" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="56"/>
+    <col min="1" max="1" width="33.6640625" style="56" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="56" customWidth="1"/>
+    <col min="3" max="4" width="11.5" style="56"/>
+    <col min="5" max="5" width="17.5" style="56" customWidth="1"/>
+    <col min="6" max="16384" width="11.5" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="61" t="s">
         <v>179</v>
       </c>
@@ -7236,7 +7303,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="60" t="s">
         <v>174</v>
       </c>
@@ -7254,7 +7321,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="60" t="s">
         <v>173</v>
       </c>
@@ -7272,7 +7339,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="60" t="s">
         <v>172</v>
       </c>
@@ -7290,7 +7357,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="60" t="s">
         <v>171</v>
       </c>
@@ -7308,7 +7375,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="60" t="s">
         <v>170</v>
       </c>
@@ -7326,7 +7393,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="60" t="s">
         <v>169</v>
       </c>
@@ -7344,7 +7411,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="60" t="s">
         <v>168</v>
       </c>
@@ -7362,7 +7429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="60" t="s">
         <v>167</v>
       </c>
@@ -7380,7 +7447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="60" t="s">
         <v>166</v>
       </c>
@@ -7398,7 +7465,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C11" s="57"/>
     </row>
   </sheetData>
@@ -7409,7 +7476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -7419,14 +7486,14 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="15" customWidth="1"/>
-    <col min="2" max="10" width="16.85546875" style="15" customWidth="1"/>
-    <col min="11" max="16384" width="14.42578125" style="15"/>
+    <col min="1" max="1" width="8.5" style="15" customWidth="1"/>
+    <col min="2" max="10" width="16.83203125" style="15" customWidth="1"/>
+    <col min="11" max="16384" width="14.5" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
@@ -7458,7 +7525,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9">
         <f>start_year</f>
         <v>2017</v>
@@ -7482,7 +7549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
         <v>2018</v>
@@ -7506,7 +7573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <f t="shared" si="2"/>
         <v>2019</v>
@@ -7530,7 +7597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -7554,7 +7621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <f t="shared" si="2"/>
         <v>2021</v>
@@ -7578,7 +7645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -7602,7 +7669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <f t="shared" si="2"/>
         <v>2023</v>
@@ -7626,7 +7693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <f t="shared" si="2"/>
         <v>2024</v>
@@ -7650,7 +7717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <f t="shared" si="2"/>
         <v>2025</v>
@@ -7674,7 +7741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <f t="shared" si="2"/>
         <v>2026</v>
@@ -7698,7 +7765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <f t="shared" si="2"/>
         <v>2027</v>
@@ -7722,7 +7789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <f t="shared" si="2"/>
         <v>2028</v>
@@ -7746,7 +7813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
         <f t="shared" si="2"/>
         <v>2029</v>
@@ -7770,7 +7837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <f t="shared" si="2"/>
         <v>2030</v>
@@ -7794,7 +7861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -7818,7 +7885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -7842,7 +7909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -7866,7 +7933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -7890,7 +7957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -7914,7 +7981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -7938,7 +8005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -7962,7 +8029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -7986,7 +8053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8010,7 +8077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8034,7 +8101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8058,7 +8125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8082,7 +8149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8106,7 +8173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8130,7 +8197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8154,7 +8221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8178,7 +8245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8202,7 +8269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8226,7 +8293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8250,7 +8317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8274,7 +8341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8298,7 +8365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8322,7 +8389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8346,7 +8413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8370,7 +8437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8406,23 +8473,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" customWidth="1"/>
     <col min="2" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2017) attributable to cause</v>
@@ -8446,7 +8513,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
         <v>74</v>
       </c>
@@ -8467,7 +8534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="32" t="s">
         <v>7</v>
       </c>
@@ -8488,7 +8555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="32" t="s">
         <v>8</v>
       </c>
@@ -8509,7 +8576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="32" t="s">
         <v>10</v>
       </c>
@@ -8530,7 +8597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="32" t="s">
         <v>13</v>
       </c>
@@ -8551,7 +8618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="32" t="s">
         <v>14</v>
       </c>
@@ -8572,7 +8639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="32" t="s">
         <v>27</v>
       </c>
@@ -8593,7 +8660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="32" t="s">
         <v>15</v>
       </c>
@@ -8614,7 +8681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="32" t="s">
         <v>72</v>
       </c>
@@ -8629,7 +8696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="32" t="s">
         <v>16</v>
       </c>
@@ -8644,7 +8711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="32" t="s">
         <v>17</v>
       </c>
@@ -8659,7 +8726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="32" t="s">
         <v>18</v>
       </c>
@@ -8674,7 +8741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="32" t="s">
         <v>19</v>
       </c>
@@ -8689,7 +8756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="32" t="s">
         <v>20</v>
       </c>
@@ -8704,7 +8771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="32" t="s">
         <v>21</v>
       </c>
@@ -8719,7 +8786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="32" t="s">
         <v>22</v>
       </c>
@@ -8734,7 +8801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="32" t="s">
         <v>23</v>
       </c>
@@ -8749,7 +8816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="32" t="s">
         <v>38</v>
       </c>
@@ -8770,7 +8837,7 @@
       </c>
       <c r="G19" s="35"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="32" t="s">
         <v>39</v>
       </c>
@@ -8791,7 +8858,7 @@
       </c>
       <c r="G20" s="35"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="32" t="s">
         <v>40</v>
       </c>
@@ -8812,7 +8879,7 @@
       </c>
       <c r="G21" s="35"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="32" t="s">
         <v>41</v>
       </c>
@@ -8833,7 +8900,7 @@
       </c>
       <c r="G22" s="35"/>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="32" t="s">
         <v>42</v>
       </c>
@@ -8854,7 +8921,7 @@
       </c>
       <c r="G23" s="35"/>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="32" t="s">
         <v>43</v>
       </c>
@@ -8875,7 +8942,7 @@
       </c>
       <c r="G24" s="35"/>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="32" t="s">
         <v>44</v>
       </c>
@@ -8896,7 +8963,7 @@
       </c>
       <c r="G25" s="35"/>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="32" t="s">
         <v>45</v>
       </c>
@@ -8917,7 +8984,7 @@
       </c>
       <c r="G26" s="35"/>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="32" t="s">
         <v>46</v>
       </c>
@@ -8946,7 +9013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -8954,13 +9021,13 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="38" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2017)</v>
@@ -8984,7 +9051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>127</v>
       </c>
@@ -9012,33 +9079,33 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
       <c r="B3" s="14" t="s">
         <v>130</v>
       </c>
       <c r="C3" s="49" t="str">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(C4:C5), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
         <v/>
       </c>
       <c r="D3" s="49" t="str">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(D4:D5), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE) - SUM(D4:D5), "")</f>
         <v/>
       </c>
       <c r="E3" s="49" t="str">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(E4:E5), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE) - SUM(E4:E5), "")</f>
         <v/>
       </c>
       <c r="F3" s="49" t="str">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(F4:F5), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE) - SUM(F4:F5), "")</f>
         <v/>
       </c>
       <c r="G3" s="49" t="str">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(G4:G5), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE) - SUM(G4:G5), "")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
       <c r="B4" s="14" t="s">
         <v>128</v>
@@ -9049,7 +9116,7 @@
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="14" t="s">
         <v>131</v>
@@ -9060,7 +9127,7 @@
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="17"/>
       <c r="C6" s="40"/>
       <c r="D6" s="40"/>
@@ -9068,7 +9135,7 @@
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="17"/>
       <c r="C7" s="40"/>
       <c r="D7" s="40"/>
@@ -9076,7 +9143,7 @@
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>126</v>
       </c>
@@ -9104,32 +9171,32 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9" t="s">
         <v>133</v>
       </c>
       <c r="C9" s="49" t="str">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(C10:C11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
         <v/>
       </c>
       <c r="D9" s="49" t="str">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(D10:D11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE) - SUM(D10:D11), "")</f>
         <v/>
       </c>
       <c r="E9" s="49" t="str">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(E10:E11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE) - SUM(E10:E11), "")</f>
         <v/>
       </c>
       <c r="F9" s="49" t="str">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(F10:F11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE) - SUM(F10:F11), "")</f>
         <v/>
       </c>
       <c r="G9" s="49" t="str">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(G10:G11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE) - SUM(G10:G11), "")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9" t="s">
         <v>134</v>
       </c>
@@ -9139,7 +9206,7 @@
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9" t="s">
         <v>135</v>
       </c>
@@ -9149,7 +9216,7 @@
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -9163,7 +9230,7 @@
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
     </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
         <v>71</v>
       </c>
@@ -9207,7 +9274,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="19" t="s">
         <v>145</v>
       </c>
@@ -9225,7 +9292,7 @@
       <c r="N14" s="51"/>
       <c r="O14" s="51"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="19" t="s">
         <v>69</v>
       </c>
@@ -9282,14 +9349,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -9304,23 +9371,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" customWidth="1"/>
-    <col min="2" max="7" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.83203125" customWidth="1"/>
+    <col min="2" max="7" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="38" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2017)</v>
@@ -9344,7 +9411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -9357,7 +9424,7 @@
       <c r="F2" s="39"/>
       <c r="G2" s="39"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="65" t="s">
         <v>183</v>
       </c>
@@ -9367,7 +9434,7 @@
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="65" t="s">
         <v>184</v>
       </c>
@@ -9377,7 +9444,7 @@
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="65" t="s">
         <v>185</v>
       </c>
@@ -9408,7 +9475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -9418,13 +9485,13 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>154</v>
       </c>
@@ -9459,7 +9526,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>155</v>
       </c>
@@ -9476,10 +9543,10 @@
       <c r="J2" s="39"/>
       <c r="K2" s="39"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B3" s="17"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>156</v>
       </c>
@@ -9496,10 +9563,10 @@
       <c r="J4" s="39"/>
       <c r="K4" s="39"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B5" s="17"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>157</v>
       </c>
@@ -9516,7 +9583,7 @@
       <c r="J6" s="39"/>
       <c r="K6" s="39"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B7" s="17" t="s">
         <v>32</v>
       </c>
@@ -9530,7 +9597,7 @@
       <c r="J7" s="39"/>
       <c r="K7" s="39"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B8" s="17" t="s">
         <v>160</v>
       </c>
@@ -9544,7 +9611,7 @@
       <c r="J8" s="39"/>
       <c r="K8" s="39"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>158</v>
       </c>
@@ -9561,7 +9628,7 @@
       <c r="J10" s="39"/>
       <c r="K10" s="39"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B11" s="53" t="s">
         <v>162</v>
       </c>
@@ -9575,7 +9642,7 @@
       <c r="J11" s="39"/>
       <c r="K11" s="39"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
         <v>75</v>
       </c>
@@ -9592,7 +9659,7 @@
       <c r="J13" s="39"/>
       <c r="K13" s="39"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B14" s="19" t="s">
         <v>186</v>
       </c>
@@ -9613,7 +9680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -9623,15 +9690,15 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="37.140625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="15" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="15"/>
+    <col min="1" max="1" width="37.1640625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="15" customWidth="1"/>
+    <col min="4" max="16384" width="11.5" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="44" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="44" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="42" t="s">
         <v>137</v>
       </c>
@@ -9643,7 +9710,7 @@
         <v>Percentage of births in category in baseline year (2017)</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
         <v>136</v>
       </c>
@@ -9652,55 +9719,55 @@
       </c>
       <c r="C2" s="45"/>
     </row>
-    <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="41" t="s">
         <v>77</v>
       </c>
       <c r="C3" s="45"/>
     </row>
-    <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="41" t="s">
         <v>78</v>
       </c>
       <c r="C4" s="45"/>
     </row>
-    <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="41" t="s">
         <v>79</v>
       </c>
       <c r="C5" s="45"/>
     </row>
-    <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="41" t="s">
         <v>80</v>
       </c>
       <c r="C6" s="45"/>
     </row>
-    <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="41" t="s">
         <v>81</v>
       </c>
       <c r="C7" s="45"/>
     </row>
-    <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="41" t="s">
         <v>82</v>
       </c>
       <c r="C8" s="45"/>
     </row>
-    <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="41" t="s">
         <v>83</v>
       </c>
       <c r="C9" s="45"/>
     </row>
-    <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="41" t="s">
         <v>84</v>
       </c>
       <c r="C10" s="45"/>
     </row>
-    <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="48" t="s">
         <v>143</v>
       </c>
@@ -9709,11 +9776,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
     </row>
-    <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="s">
         <v>85</v>
       </c>
@@ -9722,25 +9789,25 @@
       </c>
       <c r="C13" s="45"/>
     </row>
-    <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="41" t="s">
         <v>87</v>
       </c>
       <c r="C14" s="45"/>
     </row>
-    <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="41" t="s">
         <v>88</v>
       </c>
       <c r="C15" s="45"/>
     </row>
-    <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="41" t="s">
         <v>89</v>
       </c>
       <c r="C16" s="45"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B17" s="48" t="s">
         <v>143</v>
       </c>
@@ -9756,7 +9823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -9766,15 +9833,15 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" style="56" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="56" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="56" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="56"/>
+    <col min="2" max="2" width="19.1640625" style="56" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="56" customWidth="1"/>
+    <col min="4" max="16384" width="11.5" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="76" t="s">
         <v>196</v>
       </c>
@@ -9791,7 +9858,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="74" t="s">
         <v>191</v>
       </c>
@@ -9805,7 +9872,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="70"/>
       <c r="B3" s="69" t="s">
         <v>1</v>
@@ -9817,7 +9884,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="70"/>
       <c r="B4" s="69" t="s">
         <v>2</v>
@@ -9829,7 +9896,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="70"/>
       <c r="B5" s="69" t="s">
         <v>3</v>
@@ -9841,7 +9908,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="70"/>
       <c r="B6" s="69" t="s">
         <v>4</v>
@@ -9853,7 +9920,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="70"/>
       <c r="B7" s="69" t="s">
         <v>188</v>
@@ -9862,7 +9929,7 @@
       <c r="D7" s="67"/>
       <c r="E7" s="72"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="76" t="s">
         <v>190</v>
       </c>
@@ -9873,7 +9940,7 @@
       <c r="D9" s="72"/>
       <c r="E9" s="95"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="70"/>
       <c r="B10" s="69" t="s">
         <v>1</v>
@@ -9882,7 +9949,7 @@
       <c r="D10" s="72"/>
       <c r="E10" s="94"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="70"/>
       <c r="B11" s="69" t="s">
         <v>2</v>
@@ -9891,7 +9958,7 @@
       <c r="D11" s="72"/>
       <c r="E11" s="94"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="70"/>
       <c r="B12" s="69" t="s">
         <v>3</v>
@@ -9900,7 +9967,7 @@
       <c r="D12" s="72"/>
       <c r="E12" s="94"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="70"/>
       <c r="B13" s="69" t="s">
         <v>4</v>
@@ -9909,7 +9976,7 @@
       <c r="D13" s="72"/>
       <c r="E13" s="94"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="70"/>
       <c r="B14" s="69" t="s">
         <v>188</v>
@@ -9918,7 +9985,7 @@
       <c r="D14" s="67"/>
       <c r="E14" s="72"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="74" t="s">
         <v>189</v>
       </c>
@@ -9932,7 +9999,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="70"/>
       <c r="B17" s="69" t="s">
         <v>1</v>
@@ -9944,7 +10011,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="70"/>
       <c r="B18" s="69" t="s">
         <v>2</v>
@@ -9956,7 +10023,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="70"/>
       <c r="B19" s="69" t="s">
         <v>3</v>
@@ -9968,7 +10035,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="70"/>
       <c r="B20" s="69" t="s">
         <v>4</v>
@@ -9980,7 +10047,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="70"/>
       <c r="B21" s="69" t="s">
         <v>188</v>
@@ -9996,7 +10063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -10006,15 +10073,15 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="99" t="s">
         <v>180</v>
       </c>
@@ -10028,7 +10095,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="100" t="s">
         <v>70</v>
       </c>
@@ -10040,7 +10107,7 @@
       </c>
       <c r="D2" s="72"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="100" t="s">
         <v>204</v>
       </c>

--- a/templates/template_input.xlsx
+++ b/templates/template_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/github_projects/Nutrition/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C7CF0C83-F5F7-3742-A102-DFAD340A86FD}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6AB37F8C-1E1D-5C4F-A806-5F634723DEA7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="961" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6180" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="961" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="Program dependencies" sheetId="58" r:id="rId12"/>
     <sheet name="Reference programs" sheetId="59" state="hidden" r:id="rId13"/>
     <sheet name="Incidence of conditions" sheetId="7" state="hidden" r:id="rId14"/>
-    <sheet name="Programs target population" sheetId="21" r:id="rId15"/>
+    <sheet name="Programs target population" sheetId="21" state="hidden" r:id="rId15"/>
     <sheet name="Programs family planning" sheetId="54" state="hidden" r:id="rId16"/>
   </sheets>
   <definedNames>
@@ -391,9 +391,6 @@
     <t>Treatment of SAM</t>
   </si>
   <si>
-    <t>Family Planning</t>
-  </si>
-  <si>
     <t>Prevalence of iron deficiency anaemia</t>
   </si>
   <si>
@@ -839,6 +836,9 @@
   </si>
   <si>
     <t>Kangaroo mother care</t>
+  </si>
+  <si>
+    <t>Family planning</t>
   </si>
 </sst>
 </file>
@@ -4206,7 +4206,7 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4218,18 +4218,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B1" s="62" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="62" t="s">
         <v>180</v>
-      </c>
-      <c r="C1" s="62" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B2" s="62"/>
       <c r="C2" s="62"/>
@@ -4237,7 +4237,7 @@
     <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C3" s="101">
         <v>2017</v>
@@ -4246,7 +4246,7 @@
     <row r="4" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C4" s="102">
         <v>2030</v>
@@ -4264,37 +4264,37 @@
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" s="24"/>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C8" s="23"/>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C9" s="23"/>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C10" s="24"/>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11" s="24"/>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C12" s="24"/>
     </row>
@@ -4310,31 +4310,31 @@
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" s="23"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C16" s="23"/>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C17" s="23"/>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C18" s="23"/>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C19" s="26">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
@@ -4346,55 +4346,55 @@
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="23"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="23"/>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" s="23"/>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C25" s="23"/>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="16"/>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="64" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C29" s="25"/>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C30" s="25"/>
       <c r="D30" s="20"/>
@@ -4402,7 +4402,7 @@
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C31" s="25"/>
       <c r="D31" s="20"/>
@@ -4410,19 +4410,19 @@
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C32" s="25"/>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C33" s="23"/>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C34" s="25"/>
     </row>
@@ -4431,7 +4431,7 @@
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D36" s="20"/>
     </row>
@@ -4473,49 +4473,49 @@
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D42" s="20"/>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="20"/>
     </row>
     <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C44" s="7"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C45" s="7"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C46" s="7"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C47" s="7"/>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C50" s="24">
         <v>0.2</v>
@@ -4523,13 +4523,13 @@
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C51" s="24"/>
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C52" s="24">
         <v>1</v>
@@ -4537,7 +4537,7 @@
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C53" s="24">
         <v>1</v>
@@ -4559,8 +4559,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4574,17 +4574,17 @@
   <sheetData>
     <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.15">
       <c r="A1" s="87" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="103" t="str">
         <f>"baseline ("&amp;start_year&amp;") coverage"</f>
         <v>baseline (2017) coverage</v>
       </c>
       <c r="C1" s="86" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D1" s="85" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4603,7 +4603,7 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="78" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" s="79">
         <v>0</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="78" t="s">
-        <v>68</v>
+        <v>217</v>
       </c>
       <c r="B5" s="79">
         <v>0</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="98" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B9" s="79">
         <v>0</v>
@@ -4709,7 +4709,7 @@
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="98" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B10" s="79">
         <v>0</v>
@@ -4723,7 +4723,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="98" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B11" s="79">
         <v>0</v>
@@ -4737,7 +4737,7 @@
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="98" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B12" s="79">
         <v>0</v>
@@ -4751,7 +4751,7 @@
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B13" s="79">
         <v>0</v>
@@ -4765,7 +4765,7 @@
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B14" s="79">
         <v>0</v>
@@ -4809,7 +4809,7 @@
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="78" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B17" s="79">
         <v>0</v>
@@ -4824,7 +4824,7 @@
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="78" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B18" s="79">
         <v>0</v>
@@ -4839,7 +4839,7 @@
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="78" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B19" s="79">
         <v>0</v>
@@ -4854,7 +4854,7 @@
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="78" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B20" s="79">
         <v>0</v>
@@ -4868,7 +4868,7 @@
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B21" s="79">
         <v>0</v>
@@ -4898,7 +4898,7 @@
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="78" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B23" s="79">
         <v>0</v>
@@ -4913,7 +4913,7 @@
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="78" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B24" s="79">
         <v>0</v>
@@ -4928,7 +4928,7 @@
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="78" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B25" s="79">
         <v>0</v>
@@ -4958,7 +4958,7 @@
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="78" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B27" s="79">
         <v>0</v>
@@ -5015,7 +5015,7 @@
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="78" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B31" s="79">
         <v>0</v>
@@ -5029,7 +5029,7 @@
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="78" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B32" s="79">
         <v>0</v>
@@ -5043,7 +5043,7 @@
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="78" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B33" s="79">
         <v>0</v>
@@ -5057,7 +5057,7 @@
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B34" s="79">
         <v>0</v>
@@ -5071,7 +5071,7 @@
     </row>
     <row r="35" spans="1:6" s="57" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="78" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B35" s="79">
         <v>0</v>
@@ -5086,7 +5086,7 @@
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="78" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B36" s="79">
         <v>0</v>
@@ -5143,24 +5143,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="40" x14ac:dyDescent="0.2">
       <c r="A1" s="93" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B1" s="92" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C1" s="92" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D1" s="92" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E1" s="92" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="91" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B2" s="90" t="s">
         <v>32</v>
@@ -5260,8 +5260,8 @@
   </sheetPr>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5274,18 +5274,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="61" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B2" s="72" t="s">
         <v>59</v>
@@ -5294,7 +5294,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B3" s="72" t="s">
         <v>59</v>
@@ -5306,16 +5306,16 @@
         <v>58</v>
       </c>
       <c r="B4" s="72" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C4" s="72"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="78" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B5" s="72" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="72"/>
     </row>
@@ -5358,7 +5358,7 @@
   <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5369,12 +5369,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="72" t="s">
-        <v>68</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
@@ -5389,27 +5389,27 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="72" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="72" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="72" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="72" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="72" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
@@ -5483,7 +5483,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="37">
         <f>'Baseline year population inputs'!C43</f>
@@ -5570,7 +5570,7 @@
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5590,7 +5590,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -5685,7 +5685,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C3" s="54">
         <v>1</v>
@@ -5729,7 +5729,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C4" s="54">
         <v>1</v>
@@ -5773,7 +5773,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="54">
         <v>0</v>
@@ -5819,7 +5819,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C6" s="54">
         <v>0</v>
@@ -5866,7 +5866,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" s="54">
         <v>1</v>
@@ -6048,7 +6048,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" s="54">
         <v>1</v>
@@ -6191,7 +6191,7 @@
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15" s="55">
         <v>0</v>
@@ -6236,7 +6236,7 @@
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C16" s="55">
         <v>0</v>
@@ -6285,7 +6285,7 @@
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C17" s="55">
         <v>0</v>
@@ -6381,7 +6381,7 @@
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" s="55">
         <v>0</v>
@@ -6425,7 +6425,7 @@
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C20" s="55">
         <v>0</v>
@@ -6523,7 +6523,7 @@
         <v>37</v>
       </c>
       <c r="B23" s="98" t="s">
-        <v>68</v>
+        <v>217</v>
       </c>
       <c r="C23" s="55">
         <v>0</v>
@@ -6567,7 +6567,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="98" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C24" s="55">
         <v>0</v>
@@ -6615,7 +6615,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="98" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C25" s="55">
         <v>0</v>
@@ -6663,7 +6663,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="98" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C26" s="55">
         <v>0</v>
@@ -6711,7 +6711,7 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="98" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C27" s="55">
         <v>0</v>
@@ -7035,7 +7035,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C34" s="54">
         <v>1</v>
@@ -7080,7 +7080,7 @@
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5"/>
       <c r="B35" s="52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C35" s="54">
         <v>1</v>
@@ -7124,7 +7124,7 @@
     </row>
     <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C36" s="54">
         <v>1</v>
@@ -7168,7 +7168,7 @@
     </row>
     <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C37" s="54">
         <v>1</v>
@@ -7212,7 +7212,7 @@
     </row>
     <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C38" s="54">
         <v>1</v>
@@ -7274,7 +7274,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7288,24 +7288,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="61" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B1" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E1" s="61" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="60" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B2" s="59">
         <v>0.9</v>
@@ -7323,7 +7323,7 @@
     </row>
     <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="60" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B3" s="59">
         <v>1</v>
@@ -7341,7 +7341,7 @@
     </row>
     <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="60" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B4" s="59">
         <v>1</v>
@@ -7359,7 +7359,7 @@
     </row>
     <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="60" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B5" s="59">
         <v>1</v>
@@ -7377,7 +7377,7 @@
     </row>
     <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B6" s="59">
         <v>1</v>
@@ -7395,7 +7395,7 @@
     </row>
     <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="60" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B7" s="59">
         <v>0.93</v>
@@ -7413,7 +7413,7 @@
     </row>
     <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B8" s="59">
         <v>0.5</v>
@@ -7431,7 +7431,7 @@
     </row>
     <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="60" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B9" s="59">
         <v>0.5</v>
@@ -7449,7 +7449,7 @@
     </row>
     <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="60" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B10" s="59">
         <v>0.98</v>
@@ -7498,10 +7498,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>123</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>124</v>
       </c>
       <c r="D1" s="31" t="s">
         <v>49</v>
@@ -7516,10 +7516,10 @@
         <v>52</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J1" s="31" t="s">
         <v>36</v>
@@ -8515,7 +8515,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="34">
@@ -8683,7 +8683,7 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="34">
         <v>0</v>
@@ -9053,10 +9053,10 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C2" s="49" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -9082,7 +9082,7 @@
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
       <c r="B3" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C3" s="49" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
@@ -9108,7 +9108,7 @@
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
       <c r="B4" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
@@ -9119,7 +9119,7 @@
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C5" s="39"/>
       <c r="D5" s="39"/>
@@ -9145,10 +9145,10 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C8" s="49" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -9173,7 +9173,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C9" s="49" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
@@ -9198,7 +9198,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
@@ -9208,7 +9208,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C11" s="39"/>
       <c r="D11" s="39"/>
@@ -9232,7 +9232,7 @@
     </row>
     <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>1</v>
@@ -9276,7 +9276,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C14" s="50"/>
       <c r="D14" s="50"/>
@@ -9294,7 +9294,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" s="49">
         <f t="shared" ref="C15:O15" si="0">iron_deficiency_anaemia*C14</f>
@@ -9416,7 +9416,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
@@ -9426,7 +9426,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="65" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="39"/>
@@ -9436,7 +9436,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="65" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
@@ -9446,7 +9446,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="65" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C5" s="49">
         <f>1-SUM(C2:C4)</f>
@@ -9493,10 +9493,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C1">
         <v>2010</v>
@@ -9528,10 +9528,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
@@ -9548,10 +9548,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
@@ -9568,10 +9568,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C6" s="39"/>
       <c r="D6" s="39"/>
@@ -9599,7 +9599,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B8" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
@@ -9613,10 +9613,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
@@ -9630,7 +9630,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B11" s="53" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C11" s="39"/>
       <c r="D11" s="39"/>
@@ -9644,10 +9644,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="53" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
@@ -9661,7 +9661,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B14" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
@@ -9700,10 +9700,10 @@
   <sheetData>
     <row r="1" spans="1:3" s="44" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B1" s="63" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C1" s="43" t="str">
         <f>"Percentage of births in category in baseline year ("&amp;start_year&amp;")"</f>
@@ -9712,64 +9712,64 @@
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="45"/>
     </row>
     <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="45"/>
     </row>
     <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="45"/>
     </row>
     <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="45"/>
     </row>
     <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="45"/>
     </row>
     <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="45"/>
     </row>
     <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="45"/>
     </row>
     <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="45"/>
     </row>
     <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="45"/>
     </row>
     <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C11" s="47">
         <f>SUM(C2:C10)</f>
@@ -9782,34 +9782,34 @@
     </row>
     <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="41" t="s">
         <v>85</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>86</v>
       </c>
       <c r="C13" s="45"/>
     </row>
     <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="45"/>
     </row>
     <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" s="45"/>
     </row>
     <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="45"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B17" s="48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C17" s="47">
         <f>SUM(C13:C16)</f>
@@ -9843,24 +9843,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="76" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B1" s="77" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C1" s="77" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D1" s="77" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E1" s="77" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="74" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B2" s="69" t="s">
         <v>32</v>
@@ -9923,7 +9923,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="70"/>
       <c r="B7" s="69" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C7" s="68"/>
       <c r="D7" s="67"/>
@@ -9931,7 +9931,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="76" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B9" s="75" t="s">
         <v>32</v>
@@ -9979,7 +9979,7 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="70"/>
       <c r="B14" s="69" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C14" s="68"/>
       <c r="D14" s="67"/>
@@ -9987,7 +9987,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="74" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B16" s="69" t="s">
         <v>32</v>
@@ -10050,7 +10050,7 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="70"/>
       <c r="B21" s="69" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C21" s="68"/>
       <c r="D21" s="67"/>
@@ -10083,39 +10083,39 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="99" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B1" s="77" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="100" t="s">
         <v>200</v>
       </c>
-      <c r="C1" s="100" t="s">
-        <v>201</v>
-      </c>
       <c r="D1" s="100" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="100" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="69" t="s">
         <v>67</v>
       </c>
       <c r="C2" s="69" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D2" s="72"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="100" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B3" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C3" s="69" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D3" s="72"/>
     </row>
